--- a/wwwroot/53/BoxBreaking.xlsx
+++ b/wwwroot/53/BoxBreaking.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="581">
   <si>
     <t>SerialNumber</t>
   </si>
@@ -185,1567 +185,1570 @@
     <t>111</t>
   </si>
   <si>
-    <t>519 to 536</t>
+    <t>491 to 508</t>
   </si>
   <si>
     <t>112</t>
   </si>
   <si>
-    <t>537 to 546</t>
-  </si>
-  <si>
-    <t>547 to 556</t>
+    <t>509 to 518</t>
+  </si>
+  <si>
+    <t>519 to 528</t>
   </si>
   <si>
     <t>113</t>
   </si>
   <si>
-    <t>557 to 574</t>
-  </si>
-  <si>
-    <t>575 to 592</t>
-  </si>
-  <si>
-    <t>593 to 610</t>
-  </si>
-  <si>
-    <t>611 to 628</t>
-  </si>
-  <si>
-    <t>629 to 646</t>
-  </si>
-  <si>
-    <t>647 to 662</t>
+    <t>529 to 546</t>
+  </si>
+  <si>
+    <t>547 to 564</t>
+  </si>
+  <si>
+    <t>565 to 582</t>
+  </si>
+  <si>
+    <t>583 to 600</t>
+  </si>
+  <si>
+    <t>601 to 618</t>
+  </si>
+  <si>
+    <t>619 to 634</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>769 to 782</t>
+    <t>635 to 648</t>
   </si>
   <si>
     <t>116</t>
   </si>
   <si>
-    <t>783 to 791</t>
+    <t>649 to 657</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>792 to 797</t>
+    <t>658 to 663</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>798 to 812</t>
+    <t>664 to 678</t>
   </si>
   <si>
     <t>121</t>
   </si>
   <si>
-    <t>813 to 815</t>
+    <t>679 to 681</t>
   </si>
   <si>
     <t>122</t>
   </si>
   <si>
-    <t>816 to 821</t>
+    <t>682 to 687</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>822 to 838</t>
-  </si>
-  <si>
-    <t>839 to 855</t>
+    <t>688 to 704</t>
+  </si>
+  <si>
+    <t>705 to 721</t>
   </si>
   <si>
     <t>124</t>
   </si>
   <si>
-    <t>856 to 867</t>
-  </si>
-  <si>
-    <t>868 to 878</t>
+    <t>722 to 733</t>
+  </si>
+  <si>
+    <t>734 to 744</t>
   </si>
   <si>
     <t>125</t>
   </si>
   <si>
-    <t>879 to 896</t>
-  </si>
-  <si>
-    <t>897 to 914</t>
-  </si>
-  <si>
-    <t>915 to 933</t>
+    <t>745 to 762</t>
+  </si>
+  <si>
+    <t>763 to 780</t>
+  </si>
+  <si>
+    <t>781 to 799</t>
   </si>
   <si>
     <t>126</t>
   </si>
   <si>
-    <t>934 to 946</t>
-  </si>
-  <si>
-    <t>947 to 959</t>
-  </si>
-  <si>
-    <t>960 to 973</t>
+    <t>800 to 812</t>
+  </si>
+  <si>
+    <t>813 to 825</t>
+  </si>
+  <si>
+    <t>826 to 839</t>
   </si>
   <si>
     <t>128</t>
   </si>
   <si>
-    <t>974 to 988</t>
+    <t>840 to 854</t>
   </si>
   <si>
     <t>129</t>
   </si>
   <si>
-    <t>989 to 1001</t>
+    <t>855 to 867</t>
   </si>
   <si>
     <t>132</t>
   </si>
   <si>
-    <t>1002 to 1017</t>
-  </si>
-  <si>
-    <t>1018 to 1033</t>
-  </si>
-  <si>
-    <t>1034 to 1048</t>
+    <t>868 to 883</t>
+  </si>
+  <si>
+    <t>884 to 899</t>
+  </si>
+  <si>
+    <t>900 to 914</t>
   </si>
   <si>
     <t>135</t>
   </si>
   <si>
-    <t>1049 to 1066</t>
+    <t>915 to 932</t>
   </si>
   <si>
     <t>137</t>
   </si>
   <si>
-    <t>1067 to 1074</t>
+    <t>933 to 940</t>
   </si>
   <si>
     <t>138</t>
   </si>
   <si>
-    <t>1075 to 1092</t>
+    <t>941 to 958</t>
   </si>
   <si>
     <t>139</t>
   </si>
   <si>
-    <t>1093 to 1110</t>
+    <t>959 to 976</t>
   </si>
   <si>
     <t>143</t>
   </si>
   <si>
-    <t>1111 to 1126</t>
-  </si>
-  <si>
-    <t>1127 to 1141</t>
+    <t>977 to 992</t>
+  </si>
+  <si>
+    <t>993 to 1007</t>
   </si>
   <si>
     <t>144</t>
   </si>
   <si>
-    <t>1142 to 1159</t>
+    <t>1008 to 1025</t>
   </si>
   <si>
     <t>145</t>
   </si>
   <si>
-    <t>1160 to 1173</t>
-  </si>
-  <si>
-    <t>1174 to 1186</t>
+    <t>1026 to 1039</t>
+  </si>
+  <si>
+    <t>1040 to 1052</t>
   </si>
   <si>
     <t>147</t>
   </si>
   <si>
-    <t>1187 to 1191</t>
+    <t>1053 to 1057</t>
   </si>
   <si>
     <t>154</t>
   </si>
   <si>
-    <t>1192 to 1193</t>
+    <t>1058 to 1059</t>
   </si>
   <si>
     <t>157</t>
   </si>
   <si>
-    <t>1194 to 1210</t>
+    <t>1060 to 1076</t>
   </si>
   <si>
     <t>158</t>
   </si>
   <si>
-    <t>1211 to 1221</t>
+    <t>1077 to 1087</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
-    <t>1222 to 1234</t>
+    <t>1088 to 1100</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>1235 to 1252</t>
-  </si>
-  <si>
-    <t>1253 to 1269</t>
+    <t>1101 to 1118</t>
+  </si>
+  <si>
+    <t>1119 to 1135</t>
   </si>
   <si>
     <t>161</t>
   </si>
   <si>
-    <t>1270 to 1280</t>
+    <t>1136 to 1146</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
-    <t>1281 to 1299</t>
+    <t>1147 to 1165</t>
   </si>
   <si>
     <t>168</t>
   </si>
   <si>
-    <t>1300 to 1314</t>
-  </si>
-  <si>
-    <t>1315 to 1329</t>
+    <t>1166 to 1180</t>
+  </si>
+  <si>
+    <t>1181 to 1195</t>
   </si>
   <si>
     <t>169</t>
   </si>
   <si>
-    <t>1330 to 1336</t>
+    <t>1196 to 1202</t>
   </si>
   <si>
     <t>171</t>
   </si>
   <si>
-    <t>1337 to 1346</t>
+    <t>1203 to 1212</t>
   </si>
   <si>
     <t>172</t>
   </si>
   <si>
-    <t>1347 to 1357</t>
+    <t>1213 to 1223</t>
   </si>
   <si>
     <t>173</t>
   </si>
   <si>
-    <t>1358 to 1372</t>
-  </si>
-  <si>
-    <t>1373 to 1387</t>
-  </si>
-  <si>
-    <t>1388 to 1401</t>
+    <t>1224 to 1238</t>
+  </si>
+  <si>
+    <t>1239 to 1253</t>
+  </si>
+  <si>
+    <t>1254 to 1267</t>
   </si>
   <si>
     <t>174</t>
   </si>
   <si>
-    <t>1402 to 1407</t>
+    <t>1268 to 1273</t>
   </si>
   <si>
     <t>175</t>
   </si>
   <si>
-    <t>1408 to 1417</t>
-  </si>
-  <si>
-    <t>1418 to 1428</t>
+    <t>1274 to 1283</t>
+  </si>
+  <si>
+    <t>1284 to 1294</t>
   </si>
   <si>
     <t>176</t>
   </si>
   <si>
-    <t>1429 to 1434</t>
+    <t>1295 to 1300</t>
   </si>
   <si>
     <t>177</t>
   </si>
   <si>
-    <t>1435 to 1450</t>
+    <t>1301 to 1316</t>
   </si>
   <si>
     <t>178</t>
   </si>
   <si>
-    <t>1451 to 1465</t>
+    <t>1317 to 1331</t>
   </si>
   <si>
     <t>180</t>
   </si>
   <si>
-    <t>1466 to 1484</t>
+    <t>1332 to 1350</t>
   </si>
   <si>
     <t>182</t>
   </si>
   <si>
-    <t>1485 to 1488</t>
+    <t>1351 to 1354</t>
   </si>
   <si>
     <t>183</t>
   </si>
   <si>
-    <t>1489 to 1498</t>
+    <t>1355 to 1364</t>
   </si>
   <si>
     <t>184</t>
   </si>
   <si>
-    <t>1499 to 1517</t>
-  </si>
-  <si>
-    <t>1518 to 1536</t>
-  </si>
-  <si>
-    <t>1537 to 1554</t>
+    <t>1365 to 1383</t>
+  </si>
+  <si>
+    <t>1384 to 1402</t>
+  </si>
+  <si>
+    <t>1403 to 1420</t>
   </si>
   <si>
     <t>187</t>
   </si>
   <si>
-    <t>1555 to 1556</t>
+    <t>1421 to 1422</t>
   </si>
   <si>
     <t>189</t>
   </si>
   <si>
-    <t>1557 to 1570</t>
-  </si>
-  <si>
-    <t>1571 to 1583</t>
+    <t>1423 to 1436</t>
+  </si>
+  <si>
+    <t>1437 to 1449</t>
   </si>
   <si>
     <t>191</t>
   </si>
   <si>
-    <t>1584 to 1594</t>
+    <t>1450 to 1460</t>
   </si>
   <si>
     <t>195</t>
   </si>
   <si>
-    <t>1595 to 1608</t>
-  </si>
-  <si>
-    <t>1609 to 1623</t>
+    <t>1461 to 1474</t>
+  </si>
+  <si>
+    <t>1475 to 1489</t>
   </si>
   <si>
     <t>198</t>
   </si>
   <si>
-    <t>1624 to 1637</t>
+    <t>1490 to 1503</t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
-    <t>1638 to 1649</t>
-  </si>
-  <si>
-    <t>1650 to 1660</t>
+    <t>1504 to 1515</t>
+  </si>
+  <si>
+    <t>1516 to 1526</t>
   </si>
   <si>
     <t>202</t>
   </si>
   <si>
-    <t>1661 to 1675</t>
-  </si>
-  <si>
-    <t>1676 to 1690</t>
-  </si>
-  <si>
-    <t>1691 to 1705</t>
-  </si>
-  <si>
-    <t>1706 to 1721</t>
+    <t>1527 to 1541</t>
+  </si>
+  <si>
+    <t>1542 to 1556</t>
+  </si>
+  <si>
+    <t>1557 to 1571</t>
+  </si>
+  <si>
+    <t>1572 to 1587</t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
-    <t>1722 to 1737</t>
-  </si>
-  <si>
-    <t>1738 to 1754</t>
+    <t>1588 to 1603</t>
+  </si>
+  <si>
+    <t>1604 to 1620</t>
   </si>
   <si>
     <t>204</t>
   </si>
   <si>
-    <t>1755 to 1772</t>
-  </si>
-  <si>
-    <t>1773 to 1791</t>
+    <t>1621 to 1638</t>
+  </si>
+  <si>
+    <t>1639 to 1657</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>1792 to 1808</t>
-  </si>
-  <si>
-    <t>1809 to 1825</t>
-  </si>
-  <si>
-    <t>1826 to 1842</t>
-  </si>
-  <si>
-    <t>1843 to 1859</t>
+    <t>1658 to 1674</t>
+  </si>
+  <si>
+    <t>1675 to 1691</t>
+  </si>
+  <si>
+    <t>1692 to 1708</t>
+  </si>
+  <si>
+    <t>1709 to 1725</t>
   </si>
   <si>
     <t>206</t>
   </si>
   <si>
-    <t>1860 to 1865</t>
+    <t>1726 to 1731</t>
   </si>
   <si>
     <t>208</t>
   </si>
   <si>
-    <t>1866 to 1879</t>
-  </si>
-  <si>
-    <t>1880 to 1894</t>
+    <t>1732 to 1745</t>
+  </si>
+  <si>
+    <t>1746 to 1760</t>
   </si>
   <si>
     <t>209</t>
   </si>
   <si>
-    <t>1895 to 1908</t>
+    <t>1761 to 1774</t>
   </si>
   <si>
     <t>210</t>
   </si>
   <si>
-    <t>1909 to 1916</t>
+    <t>1775 to 1782</t>
   </si>
   <si>
     <t>213</t>
   </si>
   <si>
-    <t>1917 to 1926</t>
+    <t>1783 to 1792</t>
   </si>
   <si>
     <t>214</t>
   </si>
   <si>
-    <t>1927 to 1932</t>
+    <t>1793 to 1798</t>
   </si>
   <si>
     <t>217</t>
   </si>
   <si>
-    <t>1933 to 1951</t>
+    <t>1799 to 1817</t>
   </si>
   <si>
     <t>218</t>
   </si>
   <si>
-    <t>1952 to 1963</t>
-  </si>
-  <si>
-    <t>1964 to 1975</t>
+    <t>1818 to 1829</t>
+  </si>
+  <si>
+    <t>1830 to 1841</t>
   </si>
   <si>
     <t>219</t>
   </si>
   <si>
-    <t>1976 to 1988</t>
-  </si>
-  <si>
-    <t>1989 to 2001</t>
-  </si>
-  <si>
-    <t>2002 to 2015</t>
+    <t>1842 to 1854</t>
+  </si>
+  <si>
+    <t>1855 to 1867</t>
+  </si>
+  <si>
+    <t>1868 to 1881</t>
   </si>
   <si>
     <t>220</t>
   </si>
   <si>
-    <t>2016 to 2029</t>
-  </si>
-  <si>
-    <t>2030 to 2042</t>
+    <t>1882 to 1895</t>
+  </si>
+  <si>
+    <t>1896 to 1908</t>
   </si>
   <si>
     <t>221</t>
   </si>
   <si>
-    <t>2043 to 2052</t>
-  </si>
-  <si>
-    <t>2053 to 2063</t>
+    <t>1909 to 1918</t>
+  </si>
+  <si>
+    <t>1919 to 1929</t>
   </si>
   <si>
     <t>222</t>
   </si>
   <si>
-    <t>2064 to 2073</t>
+    <t>1930 to 1939</t>
   </si>
   <si>
     <t>224</t>
   </si>
   <si>
-    <t>2074 to 2086</t>
+    <t>1940 to 1952</t>
   </si>
   <si>
     <t>226</t>
   </si>
   <si>
-    <t>2087 to 2101</t>
-  </si>
-  <si>
-    <t>2102 to 2116</t>
+    <t>1953 to 1967</t>
+  </si>
+  <si>
+    <t>1968 to 1982</t>
   </si>
   <si>
     <t>227</t>
   </si>
   <si>
-    <t>2117 to 2123</t>
+    <t>1983 to 1989</t>
   </si>
   <si>
     <t>230</t>
   </si>
   <si>
-    <t>2124 to 2135</t>
+    <t>1990 to 2001</t>
   </si>
   <si>
     <t>231</t>
   </si>
   <si>
-    <t>2136 to 2139</t>
+    <t>2002 to 2005</t>
   </si>
   <si>
     <t>232</t>
   </si>
   <si>
-    <t>2140 to 2145</t>
+    <t>2006 to 2011</t>
   </si>
   <si>
     <t>233</t>
   </si>
   <si>
-    <t>2146 to 2153</t>
+    <t>2012 to 2019</t>
   </si>
   <si>
     <t>235</t>
   </si>
   <si>
-    <t>2154 to 2168</t>
+    <t>2020 to 2034</t>
   </si>
   <si>
     <t>236</t>
   </si>
   <si>
-    <t>2169 to 2178</t>
+    <t>2035 to 2044</t>
   </si>
   <si>
     <t>237</t>
   </si>
   <si>
-    <t>2179 to 2195</t>
+    <t>2045 to 2061</t>
   </si>
   <si>
     <t>238</t>
   </si>
   <si>
-    <t>2196 to 2205</t>
+    <t>2062 to 2071</t>
   </si>
   <si>
     <t>240</t>
   </si>
   <si>
-    <t>2206 to 2212</t>
+    <t>2072 to 2078</t>
   </si>
   <si>
     <t>245</t>
   </si>
   <si>
-    <t>2213 to 2218</t>
+    <t>2079 to 2084</t>
   </si>
   <si>
     <t>246</t>
   </si>
   <si>
-    <t>2219 to 2232</t>
+    <t>2085 to 2098</t>
   </si>
   <si>
     <t>248</t>
   </si>
   <si>
-    <t>2233 to 2235</t>
+    <t>2099 to 2101</t>
   </si>
   <si>
     <t>249</t>
   </si>
   <si>
-    <t>2236 to 2238</t>
+    <t>2102 to 2104</t>
   </si>
   <si>
     <t>251</t>
   </si>
   <si>
-    <t>2239 to 2242</t>
+    <t>2105 to 2108</t>
   </si>
   <si>
     <t>252</t>
   </si>
   <si>
-    <t>2243 to 2245</t>
+    <t>2109 to 2111</t>
   </si>
   <si>
     <t>258</t>
   </si>
   <si>
-    <t>2246 to 2253</t>
+    <t>2112 to 2119</t>
   </si>
   <si>
     <t>260</t>
   </si>
   <si>
-    <t>2254 to 2258</t>
+    <t>2120 to 2124</t>
   </si>
   <si>
     <t>262</t>
   </si>
   <si>
-    <t>2259 to 2267</t>
+    <t>2125 to 2133</t>
   </si>
   <si>
     <t>263</t>
   </si>
   <si>
-    <t>2268 to 2277</t>
-  </si>
-  <si>
-    <t>2278 to 2287</t>
+    <t>2134 to 2143</t>
+  </si>
+  <si>
+    <t>2144 to 2153</t>
   </si>
   <si>
     <t>266</t>
   </si>
   <si>
-    <t>2288 to 2293</t>
+    <t>2154 to 2159</t>
   </si>
   <si>
     <t>268</t>
   </si>
   <si>
-    <t>2294 to 2301</t>
+    <t>2160 to 2167</t>
   </si>
   <si>
     <t>271</t>
   </si>
   <si>
-    <t>2302 to 2309</t>
+    <t>2168 to 2175</t>
   </si>
   <si>
     <t>272</t>
   </si>
   <si>
-    <t>2310 to 2317</t>
+    <t>2176 to 2183</t>
   </si>
   <si>
     <t>277</t>
   </si>
   <si>
-    <t>2318 to 2332</t>
-  </si>
-  <si>
-    <t>2333 to 2347</t>
-  </si>
-  <si>
-    <t>2348 to 2362</t>
-  </si>
-  <si>
-    <t>2363 to 2377</t>
+    <t>2184 to 2198</t>
+  </si>
+  <si>
+    <t>2199 to 2213</t>
+  </si>
+  <si>
+    <t>2214 to 2228</t>
+  </si>
+  <si>
+    <t>2229 to 2243</t>
   </si>
   <si>
     <t>279</t>
   </si>
   <si>
-    <t>2378 to 2379</t>
+    <t>2244 to 2245</t>
   </si>
   <si>
     <t>280</t>
   </si>
   <si>
-    <t>2380 to 2385</t>
+    <t>2246 to 2251</t>
   </si>
   <si>
     <t>281</t>
   </si>
   <si>
-    <t>2386 to 2386</t>
+    <t>2252 to 2252</t>
   </si>
   <si>
     <t>290</t>
   </si>
   <si>
-    <t>2387 to 2400</t>
-  </si>
-  <si>
-    <t>2401 to 2415</t>
+    <t>2253 to 2266</t>
+  </si>
+  <si>
+    <t>2267 to 2281</t>
   </si>
   <si>
     <t>291</t>
   </si>
   <si>
-    <t>2416 to 2429</t>
+    <t>2282 to 2295</t>
   </si>
   <si>
     <t>301</t>
   </si>
   <si>
-    <t>2430 to 2448</t>
-  </si>
-  <si>
-    <t>2449 to 2467</t>
-  </si>
-  <si>
-    <t>2468 to 2486</t>
-  </si>
-  <si>
-    <t>2487 to 2504</t>
+    <t>2296 to 2314</t>
+  </si>
+  <si>
+    <t>2315 to 2333</t>
+  </si>
+  <si>
+    <t>2334 to 2352</t>
+  </si>
+  <si>
+    <t>2353 to 2370</t>
   </si>
   <si>
     <t>302</t>
   </si>
   <si>
-    <t>2505 to 2518</t>
-  </si>
-  <si>
-    <t>2519 to 2531</t>
+    <t>2371 to 2384</t>
+  </si>
+  <si>
+    <t>2385 to 2397</t>
   </si>
   <si>
     <t>303</t>
   </si>
   <si>
-    <t>2532 to 2546</t>
-  </si>
-  <si>
-    <t>2547 to 2561</t>
+    <t>2398 to 2412</t>
+  </si>
+  <si>
+    <t>2413 to 2427</t>
   </si>
   <si>
     <t>304</t>
   </si>
   <si>
-    <t>2562 to 2574</t>
+    <t>2428 to 2440</t>
   </si>
   <si>
     <t>305</t>
   </si>
   <si>
-    <t>2575 to 2585</t>
+    <t>2441 to 2451</t>
   </si>
   <si>
     <t>306</t>
   </si>
   <si>
-    <t>2586 to 2589</t>
+    <t>2452 to 2455</t>
   </si>
   <si>
     <t>307</t>
   </si>
   <si>
-    <t>2590 to 2605</t>
+    <t>2456 to 2471</t>
   </si>
   <si>
     <t>309</t>
   </si>
   <si>
-    <t>2606 to 2610</t>
+    <t>2472 to 2476</t>
   </si>
   <si>
     <t>310</t>
   </si>
   <si>
-    <t>2611 to 2614</t>
+    <t>2477 to 2480</t>
   </si>
   <si>
     <t>311</t>
   </si>
   <si>
-    <t>2615 to 2618</t>
+    <t>2481 to 2484</t>
   </si>
   <si>
     <t>312</t>
   </si>
   <si>
-    <t>2619 to 2629</t>
+    <t>2485 to 2495</t>
   </si>
   <si>
     <t>314</t>
   </si>
   <si>
-    <t>2630 to 2634</t>
+    <t>2496 to 2500</t>
   </si>
   <si>
     <t>315</t>
   </si>
   <si>
-    <t>2635 to 2639</t>
+    <t>2501 to 2505</t>
   </si>
   <si>
     <t>319</t>
   </si>
   <si>
-    <t>2640 to 2642</t>
+    <t>2506 to 2508</t>
   </si>
   <si>
     <t>323</t>
   </si>
   <si>
-    <t>2643 to 2648</t>
+    <t>2509 to 2514</t>
   </si>
   <si>
     <t>324</t>
   </si>
   <si>
-    <t>2649 to 2652</t>
+    <t>2515 to 2518</t>
   </si>
   <si>
     <t>325</t>
   </si>
   <si>
-    <t>2653 to 2655</t>
+    <t>2519 to 2521</t>
   </si>
   <si>
     <t>326</t>
   </si>
   <si>
-    <t>2656 to 2658</t>
+    <t>2522 to 2524</t>
   </si>
   <si>
     <t>401</t>
   </si>
   <si>
-    <t>2659 to 2671</t>
+    <t>2525 to 2537</t>
   </si>
   <si>
     <t>402</t>
   </si>
   <si>
-    <t>2672 to 2682</t>
-  </si>
-  <si>
-    <t>2683 to 2693</t>
+    <t>2538 to 2548</t>
+  </si>
+  <si>
+    <t>2549 to 2559</t>
   </si>
   <si>
     <t>403</t>
   </si>
   <si>
-    <t>2694 to 2703</t>
-  </si>
-  <si>
-    <t>2704 to 2714</t>
+    <t>2560 to 2569</t>
+  </si>
+  <si>
+    <t>2570 to 2580</t>
   </si>
   <si>
     <t>404</t>
   </si>
   <si>
-    <t>2715 to 2728</t>
-  </si>
-  <si>
-    <t>2729 to 2743</t>
+    <t>2581 to 2594</t>
+  </si>
+  <si>
+    <t>2595 to 2609</t>
   </si>
   <si>
     <t>405</t>
   </si>
   <si>
-    <t>2744 to 2761</t>
-  </si>
-  <si>
-    <t>2762 to 2779</t>
-  </si>
-  <si>
-    <t>2780 to 2797</t>
-  </si>
-  <si>
-    <t>2798 to 2815</t>
-  </si>
-  <si>
-    <t>2816 to 2831</t>
+    <t>2610 to 2627</t>
+  </si>
+  <si>
+    <t>2628 to 2645</t>
+  </si>
+  <si>
+    <t>2646 to 2663</t>
+  </si>
+  <si>
+    <t>2664 to 2681</t>
+  </si>
+  <si>
+    <t>2682 to 2697</t>
   </si>
   <si>
     <t>406</t>
   </si>
   <si>
-    <t>2832 to 2849</t>
-  </si>
-  <si>
-    <t>2850 to 2867</t>
-  </si>
-  <si>
-    <t>2868 to 2885</t>
-  </si>
-  <si>
-    <t>2886 to 2903</t>
-  </si>
-  <si>
-    <t>2904 to 2919</t>
+    <t>2698 to 2715</t>
+  </si>
+  <si>
+    <t>2716 to 2733</t>
+  </si>
+  <si>
+    <t>2734 to 2751</t>
+  </si>
+  <si>
+    <t>2752 to 2769</t>
+  </si>
+  <si>
+    <t>2770 to 2785</t>
   </si>
   <si>
     <t>407</t>
   </si>
   <si>
-    <t>2920 to 2931</t>
-  </si>
-  <si>
-    <t>2932 to 2943</t>
+    <t>2786 to 2797</t>
+  </si>
+  <si>
+    <t>2798 to 2809</t>
   </si>
   <si>
     <t>408</t>
   </si>
   <si>
-    <t>2944 to 2958</t>
+    <t>2810 to 2824</t>
   </si>
   <si>
     <t>411</t>
   </si>
   <si>
-    <t>2959 to 2971</t>
+    <t>2825 to 2837</t>
   </si>
   <si>
     <t>413</t>
   </si>
   <si>
-    <t>2972 to 2973</t>
+    <t>2838 to 2839</t>
   </si>
   <si>
     <t>415</t>
   </si>
   <si>
-    <t>2974 to 2986</t>
-  </si>
-  <si>
-    <t>2987 to 2999</t>
+    <t>2840 to 2852</t>
+  </si>
+  <si>
+    <t>2853 to 2865</t>
   </si>
   <si>
     <t>416</t>
   </si>
   <si>
-    <t>3000 to 3010</t>
+    <t>2866 to 2876</t>
   </si>
   <si>
     <t>418</t>
   </si>
   <si>
-    <t>3011 to 3020</t>
+    <t>2877 to 2886</t>
   </si>
   <si>
     <t>419</t>
   </si>
   <si>
-    <t>3021 to 3036</t>
+    <t>2887 to 2902</t>
   </si>
   <si>
     <t>420</t>
   </si>
   <si>
-    <t>3037 to 3050</t>
+    <t>2903 to 2916</t>
   </si>
   <si>
     <t>421</t>
   </si>
   <si>
-    <t>3051 to 3061</t>
-  </si>
-  <si>
-    <t>3062 to 3072</t>
+    <t>2917 to 2927</t>
+  </si>
+  <si>
+    <t>2928 to 2938</t>
   </si>
   <si>
     <t>422</t>
   </si>
   <si>
-    <t>3073 to 3076</t>
+    <t>2939 to 2942</t>
   </si>
   <si>
     <t>423</t>
   </si>
   <si>
-    <t>3077 to 3083</t>
+    <t>2943 to 2949</t>
   </si>
   <si>
     <t>427</t>
   </si>
   <si>
-    <t>3084 to 3094</t>
+    <t>2950 to 2960</t>
   </si>
   <si>
     <t>428</t>
   </si>
   <si>
-    <t>3095 to 3106</t>
-  </si>
-  <si>
-    <t>3107 to 3117</t>
+    <t>2961 to 2972</t>
+  </si>
+  <si>
+    <t>2973 to 2983</t>
   </si>
   <si>
     <t>430</t>
   </si>
   <si>
-    <t>3118 to 3132</t>
+    <t>2984 to 2998</t>
   </si>
   <si>
     <t>435</t>
   </si>
   <si>
-    <t>3133 to 3136</t>
+    <t>2999 to 3002</t>
   </si>
   <si>
     <t>436</t>
   </si>
   <si>
-    <t>3137 to 3138</t>
+    <t>3003 to 3004</t>
   </si>
   <si>
     <t>437</t>
   </si>
   <si>
-    <t>3139 to 3140</t>
+    <t>3005 to 3006</t>
   </si>
   <si>
     <t>438</t>
   </si>
   <si>
-    <t>3141 to 3154</t>
+    <t>3007 to 3020</t>
   </si>
   <si>
     <t>443</t>
   </si>
   <si>
-    <t>3155 to 3166</t>
+    <t>3021 to 3032</t>
   </si>
   <si>
     <t>444</t>
   </si>
   <si>
-    <t>3167 to 3178</t>
+    <t>3033 to 3044</t>
   </si>
   <si>
     <t>445</t>
   </si>
   <si>
-    <t>3179 to 3181</t>
+    <t>3045 to 3047</t>
   </si>
   <si>
     <t>446</t>
   </si>
   <si>
-    <t>3182 to 3192</t>
+    <t>3048 to 3058</t>
   </si>
   <si>
     <t>447</t>
   </si>
   <si>
-    <t>3193 to 3207</t>
+    <t>3059 to 3073</t>
   </si>
   <si>
     <t>448</t>
   </si>
   <si>
-    <t>3208 to 3218</t>
+    <t>3074 to 3084</t>
   </si>
   <si>
     <t>449</t>
   </si>
   <si>
-    <t>3219 to 3226</t>
+    <t>3085 to 3092</t>
   </si>
   <si>
     <t>451</t>
   </si>
   <si>
-    <t>3227 to 3231</t>
+    <t>3093 to 3097</t>
   </si>
   <si>
     <t>452</t>
   </si>
   <si>
-    <t>3232 to 3248</t>
-  </si>
-  <si>
-    <t>3249 to 3265</t>
-  </si>
-  <si>
-    <t>3266 to 3282</t>
-  </si>
-  <si>
-    <t>3283 to 3299</t>
-  </si>
-  <si>
-    <t>3300 to 3316</t>
-  </si>
-  <si>
-    <t>3317 to 3334</t>
+    <t>3098 to 3114</t>
+  </si>
+  <si>
+    <t>3115 to 3131</t>
+  </si>
+  <si>
+    <t>3132 to 3148</t>
+  </si>
+  <si>
+    <t>3149 to 3165</t>
+  </si>
+  <si>
+    <t>3166 to 3182</t>
+  </si>
+  <si>
+    <t>3183 to 3200</t>
   </si>
   <si>
     <t>453</t>
   </si>
   <si>
-    <t>3335 to 3344</t>
+    <t>3201 to 3210</t>
   </si>
   <si>
     <t>454</t>
   </si>
   <si>
-    <t>3345 to 3358</t>
-  </si>
-  <si>
-    <t>3359 to 3373</t>
+    <t>3211 to 3224</t>
+  </si>
+  <si>
+    <t>3225 to 3239</t>
   </si>
   <si>
     <t>455</t>
   </si>
   <si>
-    <t>3374 to 3391</t>
+    <t>3240 to 3257</t>
   </si>
   <si>
     <t>456</t>
   </si>
   <si>
-    <t>3392 to 3397</t>
+    <t>3258 to 3263</t>
   </si>
   <si>
     <t>463</t>
   </si>
   <si>
-    <t>3398 to 3410</t>
+    <t>3264 to 3276</t>
   </si>
   <si>
     <t>468</t>
   </si>
   <si>
-    <t>3411 to 3413</t>
+    <t>3277 to 3279</t>
   </si>
   <si>
     <t>470</t>
   </si>
   <si>
-    <t>3414 to 3419</t>
+    <t>3280 to 3285</t>
   </si>
   <si>
     <t>471</t>
   </si>
   <si>
-    <t>3420 to 3429</t>
-  </si>
-  <si>
-    <t>3430 to 3440</t>
+    <t>3286 to 3295</t>
+  </si>
+  <si>
+    <t>3296 to 3306</t>
   </si>
   <si>
     <t>472</t>
   </si>
   <si>
-    <t>3441 to 3453</t>
+    <t>3307 to 3319</t>
   </si>
   <si>
     <t>473</t>
   </si>
   <si>
-    <t>3454 to 3456</t>
+    <t>3320 to 3322</t>
   </si>
   <si>
     <t>486</t>
   </si>
   <si>
-    <t>3457 to 3470</t>
-  </si>
-  <si>
-    <t>3471 to 3484</t>
-  </si>
-  <si>
-    <t>3485 to 3498</t>
+    <t>3323 to 3336</t>
+  </si>
+  <si>
+    <t>3337 to 3350</t>
+  </si>
+  <si>
+    <t>3351 to 3364</t>
   </si>
   <si>
     <t>488</t>
   </si>
   <si>
-    <t>3499 to 3502</t>
+    <t>3365 to 3368</t>
   </si>
   <si>
     <t>493</t>
   </si>
   <si>
-    <t>3503 to 3506</t>
+    <t>3369 to 3372</t>
   </si>
   <si>
     <t>497</t>
   </si>
   <si>
-    <t>3507 to 3509</t>
+    <t>3373 to 3375</t>
   </si>
   <si>
     <t>498</t>
   </si>
   <si>
-    <t>3510 to 3521</t>
+    <t>3376 to 3387</t>
   </si>
   <si>
     <t>499</t>
   </si>
   <si>
-    <t>3522 to 3528</t>
+    <t>3388 to 3394</t>
   </si>
   <si>
     <t>501</t>
   </si>
   <si>
-    <t>3529 to 3544</t>
-  </si>
-  <si>
-    <t>3545 to 3560</t>
-  </si>
-  <si>
-    <t>3561 to 3576</t>
+    <t>3395 to 3410</t>
+  </si>
+  <si>
+    <t>3411 to 3426</t>
+  </si>
+  <si>
+    <t>3427 to 3442</t>
   </si>
   <si>
     <t>502</t>
   </si>
   <si>
-    <t>3577 to 3592</t>
-  </si>
-  <si>
-    <t>3593 to 3608</t>
-  </si>
-  <si>
-    <t>3609 to 3624</t>
-  </si>
-  <si>
-    <t>3625 to 3641</t>
+    <t>3443 to 3458</t>
+  </si>
+  <si>
+    <t>3459 to 3474</t>
+  </si>
+  <si>
+    <t>3475 to 3490</t>
+  </si>
+  <si>
+    <t>3491 to 3507</t>
   </si>
   <si>
     <t>503</t>
   </si>
   <si>
-    <t>3642 to 3653</t>
+    <t>3508 to 3519</t>
   </si>
   <si>
     <t>504</t>
   </si>
   <si>
-    <t>3654 to 3672</t>
+    <t>3520 to 3538</t>
   </si>
   <si>
     <t>505</t>
   </si>
   <si>
-    <t>3673 to 3684</t>
+    <t>3539 to 3550</t>
   </si>
   <si>
     <t>506</t>
   </si>
   <si>
-    <t>3685 to 3695</t>
-  </si>
-  <si>
-    <t>3696 to 3706</t>
+    <t>3551 to 3561</t>
+  </si>
+  <si>
+    <t>3562 to 3572</t>
   </si>
   <si>
     <t>507</t>
   </si>
   <si>
-    <t>3707 to 3713</t>
+    <t>3573 to 3579</t>
   </si>
   <si>
     <t>508</t>
   </si>
   <si>
-    <t>3714 to 3716</t>
+    <t>3580 to 3582</t>
   </si>
   <si>
     <t>510</t>
   </si>
   <si>
-    <t>3717 to 3728</t>
-  </si>
-  <si>
-    <t>3729 to 3740</t>
+    <t>3583 to 3594</t>
+  </si>
+  <si>
+    <t>3595 to 3606</t>
   </si>
   <si>
     <t>511</t>
   </si>
   <si>
-    <t>3741 to 3751</t>
+    <t>3607 to 3617</t>
   </si>
   <si>
     <t>512</t>
   </si>
   <si>
-    <t>3752 to 3766</t>
-  </si>
-  <si>
-    <t>3767 to 3781</t>
+    <t>3618 to 3632</t>
+  </si>
+  <si>
+    <t>3633 to 3647</t>
   </si>
   <si>
     <t>514</t>
   </si>
   <si>
-    <t>3782 to 3785</t>
+    <t>3648 to 3651</t>
   </si>
   <si>
     <t>516</t>
   </si>
   <si>
-    <t>3786 to 3798</t>
+    <t>3652 to 3664</t>
   </si>
   <si>
     <t>517</t>
   </si>
   <si>
-    <t>3799 to 3810</t>
+    <t>3665 to 3676</t>
   </si>
   <si>
     <t>518</t>
   </si>
   <si>
-    <t>3811 to 3821</t>
-  </si>
-  <si>
-    <t>3822 to 3832</t>
+    <t>3677 to 3687</t>
+  </si>
+  <si>
+    <t>3688 to 3698</t>
   </si>
   <si>
     <t>519</t>
   </si>
   <si>
-    <t>3833 to 3842</t>
-  </si>
-  <si>
-    <t>3843 to 3853</t>
+    <t>3699 to 3708</t>
+  </si>
+  <si>
+    <t>3709 to 3719</t>
   </si>
   <si>
     <t>520</t>
   </si>
   <si>
-    <t>3854 to 3858</t>
+    <t>3720 to 3724</t>
   </si>
   <si>
     <t>521</t>
   </si>
   <si>
-    <t>3859 to 3869</t>
+    <t>3725 to 3735</t>
   </si>
   <si>
     <t>522</t>
   </si>
   <si>
-    <t>3870 to 3873</t>
+    <t>3736 to 3739</t>
   </si>
   <si>
     <t>524</t>
   </si>
   <si>
-    <t>3874 to 3883</t>
+    <t>3740 to 3749</t>
   </si>
   <si>
     <t>525</t>
   </si>
   <si>
+    <t>3750 to 3758</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>3759 to 3765</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>3766 to 3772</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>3773 to 3775</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>3776 to 3786</t>
+  </si>
+  <si>
+    <t>3787 to 3797</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>3798 to 3807</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>3808 to 3819</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>3820 to 3820</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>3821 to 3834</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>3835 to 3844</t>
+  </si>
+  <si>
+    <t>3845 to 3855</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>3856 to 3864</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>3865 to 3866</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>3867 to 3870</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>3871 to 3874</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>3875 to 3881</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>3882 to 3883</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
     <t>3884 to 3892</t>
   </si>
   <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>3893 to 3899</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>3900 to 3906</t>
-  </si>
-  <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>3907 to 3909</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>3910 to 3920</t>
-  </si>
-  <si>
-    <t>3921 to 3931</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>3932 to 3941</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>3942 to 3953</t>
-  </si>
-  <si>
-    <t>537</t>
-  </si>
-  <si>
-    <t>3954 to 3954</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>3955 to 3968</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>3969 to 3978</t>
-  </si>
-  <si>
-    <t>3979 to 3989</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>3990 to 3998</t>
-  </si>
-  <si>
-    <t>547</t>
-  </si>
-  <si>
-    <t>3999 to 4000</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>4001 to 4004</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>4005 to 4008</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>4009 to 4015</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>491 to 492</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>493 to 501</t>
-  </si>
-  <si>
     <t>1108</t>
   </si>
   <si>
-    <t>4016 to 4032</t>
+    <t>3893 to 3909</t>
   </si>
   <si>
     <t>1115</t>
   </si>
   <si>
+    <t>3910 to 3919</t>
+  </si>
+  <si>
     <t>1116</t>
   </si>
   <si>
-    <t>547 to 552</t>
+    <t>3920 to 3925</t>
   </si>
   <si>
     <t>1117</t>
   </si>
   <si>
-    <t>553 to 557</t>
+    <t>3926 to 3930</t>
   </si>
   <si>
     <t>1119</t>
   </si>
   <si>
-    <t>558 to 560</t>
+    <t>3931 to 3933</t>
   </si>
   <si>
     <t>1120</t>
   </si>
   <si>
-    <t>581 to 589</t>
+    <t>3934 to 3942</t>
   </si>
   <si>
     <t>1121</t>
   </si>
   <si>
-    <t>590 to 598</t>
+    <t>3943 to 3951</t>
   </si>
   <si>
     <t>1125</t>
   </si>
   <si>
-    <t>599 to 601</t>
+    <t>3952 to 3954</t>
   </si>
   <si>
     <t>1127</t>
   </si>
   <si>
-    <t>602 to 608</t>
+    <t>3955 to 3961</t>
   </si>
   <si>
     <t>1128</t>
   </si>
   <si>
-    <t>609 to 617</t>
+    <t>3962 to 3970</t>
   </si>
   <si>
     <t>1129</t>
   </si>
   <si>
-    <t>4033 to 4048</t>
+    <t>3971 to 3986</t>
   </si>
   <si>
     <t>1130</t>
   </si>
   <si>
-    <t>740 to 742</t>
+    <t>3987 to 3989</t>
   </si>
   <si>
     <t>1132</t>
   </si>
   <si>
-    <t>743 to 758</t>
+    <t>3990 to 4005</t>
   </si>
   <si>
     <t>1136</t>
   </si>
   <si>
-    <t>4049 to 4058</t>
+    <t>4006 to 4015</t>
   </si>
   <si>
     <t>University Extra</t>
@@ -3215,7 +3218,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>15</v>
@@ -3245,10 +3248,10 @@
         <v>18</v>
       </c>
       <c r="K31" s="0">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="L31" s="0">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>57</v>
@@ -3262,7 +3265,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>15</v>
@@ -3292,10 +3295,10 @@
         <v>20</v>
       </c>
       <c r="K32" s="0">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="L32" s="0">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>59</v>
@@ -3309,7 +3312,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>15</v>
@@ -3339,10 +3342,10 @@
         <v>20</v>
       </c>
       <c r="K33" s="0">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="L33" s="0">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>60</v>
@@ -3356,7 +3359,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>634</v>
+        <v>529</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>15</v>
@@ -3386,10 +3389,10 @@
         <v>106</v>
       </c>
       <c r="K34" s="0">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="L34" s="0">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>62</v>
@@ -3403,7 +3406,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>634</v>
+        <v>529</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>15</v>
@@ -3433,10 +3436,10 @@
         <v>106</v>
       </c>
       <c r="K35" s="0">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="L35" s="0">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>63</v>
@@ -3450,7 +3453,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>634</v>
+        <v>529</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>15</v>
@@ -3480,10 +3483,10 @@
         <v>106</v>
       </c>
       <c r="K36" s="0">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="L36" s="0">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>64</v>
@@ -3497,7 +3500,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>634</v>
+        <v>529</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>15</v>
@@ -3527,10 +3530,10 @@
         <v>106</v>
       </c>
       <c r="K37" s="0">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="L37" s="0">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>65</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>634</v>
+        <v>529</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>15</v>
@@ -3574,10 +3577,10 @@
         <v>106</v>
       </c>
       <c r="K38" s="0">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="L38" s="0">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>66</v>
@@ -3591,7 +3594,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>634</v>
+        <v>529</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>15</v>
@@ -3621,10 +3624,10 @@
         <v>106</v>
       </c>
       <c r="K39" s="0">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="L39" s="0">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>67</v>
@@ -3638,7 +3641,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>769</v>
+        <v>635</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>15</v>
@@ -3668,10 +3671,10 @@
         <v>14</v>
       </c>
       <c r="K40" s="0">
-        <v>769</v>
+        <v>635</v>
       </c>
       <c r="L40" s="0">
-        <v>782</v>
+        <v>648</v>
       </c>
       <c r="M40" s="0" t="s">
         <v>69</v>
@@ -3685,7 +3688,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>783</v>
+        <v>649</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>15</v>
@@ -3715,10 +3718,10 @@
         <v>9</v>
       </c>
       <c r="K41" s="0">
-        <v>783</v>
+        <v>649</v>
       </c>
       <c r="L41" s="0">
-        <v>791</v>
+        <v>657</v>
       </c>
       <c r="M41" s="0" t="s">
         <v>71</v>
@@ -3732,7 +3735,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>792</v>
+        <v>658</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>15</v>
@@ -3762,10 +3765,10 @@
         <v>6</v>
       </c>
       <c r="K42" s="0">
-        <v>792</v>
+        <v>658</v>
       </c>
       <c r="L42" s="0">
-        <v>797</v>
+        <v>663</v>
       </c>
       <c r="M42" s="0" t="s">
         <v>73</v>
@@ -3779,7 +3782,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>798</v>
+        <v>664</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>15</v>
@@ -3809,10 +3812,10 @@
         <v>15</v>
       </c>
       <c r="K43" s="0">
-        <v>798</v>
+        <v>664</v>
       </c>
       <c r="L43" s="0">
-        <v>812</v>
+        <v>678</v>
       </c>
       <c r="M43" s="0" t="s">
         <v>75</v>
@@ -3826,7 +3829,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>813</v>
+        <v>679</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>15</v>
@@ -3856,10 +3859,10 @@
         <v>3</v>
       </c>
       <c r="K44" s="0">
-        <v>813</v>
+        <v>679</v>
       </c>
       <c r="L44" s="0">
-        <v>815</v>
+        <v>681</v>
       </c>
       <c r="M44" s="0" t="s">
         <v>77</v>
@@ -3873,7 +3876,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>816</v>
+        <v>682</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>15</v>
@@ -3903,10 +3906,10 @@
         <v>6</v>
       </c>
       <c r="K45" s="0">
-        <v>816</v>
+        <v>682</v>
       </c>
       <c r="L45" s="0">
-        <v>821</v>
+        <v>687</v>
       </c>
       <c r="M45" s="0" t="s">
         <v>79</v>
@@ -3920,7 +3923,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>822</v>
+        <v>688</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>15</v>
@@ -3950,10 +3953,10 @@
         <v>34</v>
       </c>
       <c r="K46" s="0">
-        <v>822</v>
+        <v>688</v>
       </c>
       <c r="L46" s="0">
-        <v>838</v>
+        <v>704</v>
       </c>
       <c r="M46" s="0" t="s">
         <v>81</v>
@@ -3967,7 +3970,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>822</v>
+        <v>688</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>15</v>
@@ -3997,10 +4000,10 @@
         <v>34</v>
       </c>
       <c r="K47" s="0">
-        <v>839</v>
+        <v>705</v>
       </c>
       <c r="L47" s="0">
-        <v>855</v>
+        <v>721</v>
       </c>
       <c r="M47" s="0" t="s">
         <v>82</v>
@@ -4014,7 +4017,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>856</v>
+        <v>722</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>15</v>
@@ -4044,10 +4047,10 @@
         <v>23</v>
       </c>
       <c r="K48" s="0">
-        <v>856</v>
+        <v>722</v>
       </c>
       <c r="L48" s="0">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>84</v>
@@ -4061,7 +4064,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>856</v>
+        <v>722</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>15</v>
@@ -4091,10 +4094,10 @@
         <v>23</v>
       </c>
       <c r="K49" s="0">
-        <v>868</v>
+        <v>734</v>
       </c>
       <c r="L49" s="0">
-        <v>878</v>
+        <v>744</v>
       </c>
       <c r="M49" s="0" t="s">
         <v>85</v>
@@ -4108,7 +4111,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>879</v>
+        <v>745</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>15</v>
@@ -4138,10 +4141,10 @@
         <v>55</v>
       </c>
       <c r="K50" s="0">
-        <v>879</v>
+        <v>745</v>
       </c>
       <c r="L50" s="0">
-        <v>896</v>
+        <v>762</v>
       </c>
       <c r="M50" s="0" t="s">
         <v>87</v>
@@ -4155,7 +4158,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>879</v>
+        <v>745</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>15</v>
@@ -4185,10 +4188,10 @@
         <v>55</v>
       </c>
       <c r="K51" s="0">
-        <v>897</v>
+        <v>763</v>
       </c>
       <c r="L51" s="0">
-        <v>914</v>
+        <v>780</v>
       </c>
       <c r="M51" s="0" t="s">
         <v>88</v>
@@ -4202,7 +4205,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>879</v>
+        <v>745</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>15</v>
@@ -4232,10 +4235,10 @@
         <v>55</v>
       </c>
       <c r="K52" s="0">
-        <v>915</v>
+        <v>781</v>
       </c>
       <c r="L52" s="0">
-        <v>933</v>
+        <v>799</v>
       </c>
       <c r="M52" s="0" t="s">
         <v>89</v>
@@ -4249,7 +4252,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>934</v>
+        <v>800</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>15</v>
@@ -4279,10 +4282,10 @@
         <v>40</v>
       </c>
       <c r="K53" s="0">
-        <v>934</v>
+        <v>800</v>
       </c>
       <c r="L53" s="0">
-        <v>946</v>
+        <v>812</v>
       </c>
       <c r="M53" s="0" t="s">
         <v>91</v>
@@ -4296,7 +4299,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>934</v>
+        <v>800</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>15</v>
@@ -4326,10 +4329,10 @@
         <v>40</v>
       </c>
       <c r="K54" s="0">
-        <v>947</v>
+        <v>813</v>
       </c>
       <c r="L54" s="0">
-        <v>959</v>
+        <v>825</v>
       </c>
       <c r="M54" s="0" t="s">
         <v>92</v>
@@ -4343,7 +4346,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>934</v>
+        <v>800</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>15</v>
@@ -4373,10 +4376,10 @@
         <v>40</v>
       </c>
       <c r="K55" s="0">
-        <v>960</v>
+        <v>826</v>
       </c>
       <c r="L55" s="0">
-        <v>973</v>
+        <v>839</v>
       </c>
       <c r="M55" s="0" t="s">
         <v>93</v>
@@ -4390,7 +4393,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>974</v>
+        <v>840</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>15</v>
@@ -4420,10 +4423,10 @@
         <v>15</v>
       </c>
       <c r="K56" s="0">
-        <v>974</v>
+        <v>840</v>
       </c>
       <c r="L56" s="0">
-        <v>988</v>
+        <v>854</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>95</v>
@@ -4437,7 +4440,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>989</v>
+        <v>855</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>15</v>
@@ -4467,10 +4470,10 @@
         <v>13</v>
       </c>
       <c r="K57" s="0">
-        <v>989</v>
+        <v>855</v>
       </c>
       <c r="L57" s="0">
-        <v>1001</v>
+        <v>867</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>97</v>
@@ -4484,7 +4487,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>1002</v>
+        <v>868</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>15</v>
@@ -4514,10 +4517,10 @@
         <v>47</v>
       </c>
       <c r="K58" s="0">
-        <v>1002</v>
+        <v>868</v>
       </c>
       <c r="L58" s="0">
-        <v>1017</v>
+        <v>883</v>
       </c>
       <c r="M58" s="0" t="s">
         <v>99</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>1002</v>
+        <v>868</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>15</v>
@@ -4561,10 +4564,10 @@
         <v>47</v>
       </c>
       <c r="K59" s="0">
-        <v>1018</v>
+        <v>884</v>
       </c>
       <c r="L59" s="0">
-        <v>1033</v>
+        <v>899</v>
       </c>
       <c r="M59" s="0" t="s">
         <v>100</v>
@@ -4578,7 +4581,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>1002</v>
+        <v>868</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>15</v>
@@ -4608,10 +4611,10 @@
         <v>47</v>
       </c>
       <c r="K60" s="0">
-        <v>1034</v>
+        <v>900</v>
       </c>
       <c r="L60" s="0">
-        <v>1048</v>
+        <v>914</v>
       </c>
       <c r="M60" s="0" t="s">
         <v>101</v>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>1049</v>
+        <v>915</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>15</v>
@@ -4655,10 +4658,10 @@
         <v>18</v>
       </c>
       <c r="K61" s="0">
-        <v>1049</v>
+        <v>915</v>
       </c>
       <c r="L61" s="0">
-        <v>1066</v>
+        <v>932</v>
       </c>
       <c r="M61" s="0" t="s">
         <v>103</v>
@@ -4672,7 +4675,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>15</v>
@@ -4702,10 +4705,10 @@
         <v>8</v>
       </c>
       <c r="K62" s="0">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="L62" s="0">
-        <v>1074</v>
+        <v>940</v>
       </c>
       <c r="M62" s="0" t="s">
         <v>105</v>
@@ -4719,7 +4722,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>1075</v>
+        <v>941</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>15</v>
@@ -4749,10 +4752,10 @@
         <v>18</v>
       </c>
       <c r="K63" s="0">
-        <v>1075</v>
+        <v>941</v>
       </c>
       <c r="L63" s="0">
-        <v>1092</v>
+        <v>958</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>107</v>
@@ -4766,7 +4769,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>1093</v>
+        <v>959</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>15</v>
@@ -4796,10 +4799,10 @@
         <v>18</v>
       </c>
       <c r="K64" s="0">
-        <v>1093</v>
+        <v>959</v>
       </c>
       <c r="L64" s="0">
-        <v>1110</v>
+        <v>976</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>109</v>
@@ -4813,7 +4816,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>1111</v>
+        <v>977</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>15</v>
@@ -4843,10 +4846,10 @@
         <v>31</v>
       </c>
       <c r="K65" s="0">
-        <v>1111</v>
+        <v>977</v>
       </c>
       <c r="L65" s="0">
-        <v>1126</v>
+        <v>992</v>
       </c>
       <c r="M65" s="0" t="s">
         <v>111</v>
@@ -4860,7 +4863,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>1111</v>
+        <v>977</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>15</v>
@@ -4890,10 +4893,10 @@
         <v>31</v>
       </c>
       <c r="K66" s="0">
-        <v>1127</v>
+        <v>993</v>
       </c>
       <c r="L66" s="0">
-        <v>1141</v>
+        <v>1007</v>
       </c>
       <c r="M66" s="0" t="s">
         <v>112</v>
@@ -4907,7 +4910,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1142</v>
+        <v>1008</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>15</v>
@@ -4937,10 +4940,10 @@
         <v>18</v>
       </c>
       <c r="K67" s="0">
-        <v>1142</v>
+        <v>1008</v>
       </c>
       <c r="L67" s="0">
-        <v>1159</v>
+        <v>1025</v>
       </c>
       <c r="M67" s="0" t="s">
         <v>114</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1160</v>
+        <v>1026</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>15</v>
@@ -4984,10 +4987,10 @@
         <v>27</v>
       </c>
       <c r="K68" s="0">
-        <v>1160</v>
+        <v>1026</v>
       </c>
       <c r="L68" s="0">
-        <v>1173</v>
+        <v>1039</v>
       </c>
       <c r="M68" s="0" t="s">
         <v>116</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>1160</v>
+        <v>1026</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>15</v>
@@ -5031,10 +5034,10 @@
         <v>27</v>
       </c>
       <c r="K69" s="0">
-        <v>1174</v>
+        <v>1040</v>
       </c>
       <c r="L69" s="0">
-        <v>1186</v>
+        <v>1052</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>117</v>
@@ -5048,7 +5051,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>1187</v>
+        <v>1053</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>15</v>
@@ -5078,10 +5081,10 @@
         <v>5</v>
       </c>
       <c r="K70" s="0">
-        <v>1187</v>
+        <v>1053</v>
       </c>
       <c r="L70" s="0">
-        <v>1191</v>
+        <v>1057</v>
       </c>
       <c r="M70" s="0" t="s">
         <v>119</v>
@@ -5095,7 +5098,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>1192</v>
+        <v>1058</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>15</v>
@@ -5125,10 +5128,10 @@
         <v>2</v>
       </c>
       <c r="K71" s="0">
-        <v>1192</v>
+        <v>1058</v>
       </c>
       <c r="L71" s="0">
-        <v>1193</v>
+        <v>1059</v>
       </c>
       <c r="M71" s="0" t="s">
         <v>121</v>
@@ -5142,7 +5145,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>1194</v>
+        <v>1060</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>15</v>
@@ -5172,10 +5175,10 @@
         <v>17</v>
       </c>
       <c r="K72" s="0">
-        <v>1194</v>
+        <v>1060</v>
       </c>
       <c r="L72" s="0">
-        <v>1210</v>
+        <v>1076</v>
       </c>
       <c r="M72" s="0" t="s">
         <v>123</v>
@@ -5189,7 +5192,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>1211</v>
+        <v>1077</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>15</v>
@@ -5219,10 +5222,10 @@
         <v>11</v>
       </c>
       <c r="K73" s="0">
-        <v>1211</v>
+        <v>1077</v>
       </c>
       <c r="L73" s="0">
-        <v>1221</v>
+        <v>1087</v>
       </c>
       <c r="M73" s="0" t="s">
         <v>125</v>
@@ -5236,7 +5239,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>1222</v>
+        <v>1088</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>15</v>
@@ -5266,10 +5269,10 @@
         <v>13</v>
       </c>
       <c r="K74" s="0">
-        <v>1222</v>
+        <v>1088</v>
       </c>
       <c r="L74" s="0">
-        <v>1234</v>
+        <v>1100</v>
       </c>
       <c r="M74" s="0" t="s">
         <v>127</v>
@@ -5283,7 +5286,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>1235</v>
+        <v>1101</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>15</v>
@@ -5313,10 +5316,10 @@
         <v>35</v>
       </c>
       <c r="K75" s="0">
-        <v>1235</v>
+        <v>1101</v>
       </c>
       <c r="L75" s="0">
-        <v>1252</v>
+        <v>1118</v>
       </c>
       <c r="M75" s="0" t="s">
         <v>129</v>
@@ -5330,7 +5333,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>1235</v>
+        <v>1101</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>15</v>
@@ -5360,10 +5363,10 @@
         <v>35</v>
       </c>
       <c r="K76" s="0">
-        <v>1253</v>
+        <v>1119</v>
       </c>
       <c r="L76" s="0">
-        <v>1269</v>
+        <v>1135</v>
       </c>
       <c r="M76" s="0" t="s">
         <v>130</v>
@@ -5377,7 +5380,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>1270</v>
+        <v>1136</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>15</v>
@@ -5407,10 +5410,10 @@
         <v>11</v>
       </c>
       <c r="K77" s="0">
-        <v>1270</v>
+        <v>1136</v>
       </c>
       <c r="L77" s="0">
-        <v>1280</v>
+        <v>1146</v>
       </c>
       <c r="M77" s="0" t="s">
         <v>132</v>
@@ -5424,7 +5427,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>1281</v>
+        <v>1147</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>15</v>
@@ -5454,10 +5457,10 @@
         <v>19</v>
       </c>
       <c r="K78" s="0">
-        <v>1281</v>
+        <v>1147</v>
       </c>
       <c r="L78" s="0">
-        <v>1299</v>
+        <v>1165</v>
       </c>
       <c r="M78" s="0" t="s">
         <v>134</v>
@@ -5471,7 +5474,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>1300</v>
+        <v>1166</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>15</v>
@@ -5501,10 +5504,10 @@
         <v>30</v>
       </c>
       <c r="K79" s="0">
-        <v>1300</v>
+        <v>1166</v>
       </c>
       <c r="L79" s="0">
-        <v>1314</v>
+        <v>1180</v>
       </c>
       <c r="M79" s="0" t="s">
         <v>136</v>
@@ -5518,7 +5521,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>1300</v>
+        <v>1166</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>15</v>
@@ -5548,10 +5551,10 @@
         <v>30</v>
       </c>
       <c r="K80" s="0">
-        <v>1315</v>
+        <v>1181</v>
       </c>
       <c r="L80" s="0">
-        <v>1329</v>
+        <v>1195</v>
       </c>
       <c r="M80" s="0" t="s">
         <v>137</v>
@@ -5565,7 +5568,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>1330</v>
+        <v>1196</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>15</v>
@@ -5595,10 +5598,10 @@
         <v>7</v>
       </c>
       <c r="K81" s="0">
-        <v>1330</v>
+        <v>1196</v>
       </c>
       <c r="L81" s="0">
-        <v>1336</v>
+        <v>1202</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>139</v>
@@ -5612,7 +5615,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>1337</v>
+        <v>1203</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>15</v>
@@ -5642,10 +5645,10 @@
         <v>10</v>
       </c>
       <c r="K82" s="0">
-        <v>1337</v>
+        <v>1203</v>
       </c>
       <c r="L82" s="0">
-        <v>1346</v>
+        <v>1212</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>141</v>
@@ -5659,7 +5662,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>1347</v>
+        <v>1213</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>15</v>
@@ -5689,10 +5692,10 @@
         <v>11</v>
       </c>
       <c r="K83" s="0">
-        <v>1347</v>
+        <v>1213</v>
       </c>
       <c r="L83" s="0">
-        <v>1357</v>
+        <v>1223</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>143</v>
@@ -5706,7 +5709,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>1358</v>
+        <v>1224</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>15</v>
@@ -5736,10 +5739,10 @@
         <v>44</v>
       </c>
       <c r="K84" s="0">
-        <v>1358</v>
+        <v>1224</v>
       </c>
       <c r="L84" s="0">
-        <v>1372</v>
+        <v>1238</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>145</v>
@@ -5753,7 +5756,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>1358</v>
+        <v>1224</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>15</v>
@@ -5783,10 +5786,10 @@
         <v>44</v>
       </c>
       <c r="K85" s="0">
-        <v>1373</v>
+        <v>1239</v>
       </c>
       <c r="L85" s="0">
-        <v>1387</v>
+        <v>1253</v>
       </c>
       <c r="M85" s="0" t="s">
         <v>146</v>
@@ -5800,7 +5803,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>1358</v>
+        <v>1224</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>15</v>
@@ -5830,10 +5833,10 @@
         <v>44</v>
       </c>
       <c r="K86" s="0">
-        <v>1388</v>
+        <v>1254</v>
       </c>
       <c r="L86" s="0">
-        <v>1401</v>
+        <v>1267</v>
       </c>
       <c r="M86" s="0" t="s">
         <v>147</v>
@@ -5847,7 +5850,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>1402</v>
+        <v>1268</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>15</v>
@@ -5877,10 +5880,10 @@
         <v>6</v>
       </c>
       <c r="K87" s="0">
-        <v>1402</v>
+        <v>1268</v>
       </c>
       <c r="L87" s="0">
-        <v>1407</v>
+        <v>1273</v>
       </c>
       <c r="M87" s="0" t="s">
         <v>149</v>
@@ -5894,7 +5897,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>1408</v>
+        <v>1274</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>15</v>
@@ -5924,10 +5927,10 @@
         <v>21</v>
       </c>
       <c r="K88" s="0">
-        <v>1408</v>
+        <v>1274</v>
       </c>
       <c r="L88" s="0">
-        <v>1417</v>
+        <v>1283</v>
       </c>
       <c r="M88" s="0" t="s">
         <v>151</v>
@@ -5941,7 +5944,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>1408</v>
+        <v>1274</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>15</v>
@@ -5971,10 +5974,10 @@
         <v>21</v>
       </c>
       <c r="K89" s="0">
-        <v>1418</v>
+        <v>1284</v>
       </c>
       <c r="L89" s="0">
-        <v>1428</v>
+        <v>1294</v>
       </c>
       <c r="M89" s="0" t="s">
         <v>152</v>
@@ -5988,7 +5991,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>1429</v>
+        <v>1295</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>15</v>
@@ -6018,10 +6021,10 @@
         <v>6</v>
       </c>
       <c r="K90" s="0">
-        <v>1429</v>
+        <v>1295</v>
       </c>
       <c r="L90" s="0">
-        <v>1434</v>
+        <v>1300</v>
       </c>
       <c r="M90" s="0" t="s">
         <v>154</v>
@@ -6035,7 +6038,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>1435</v>
+        <v>1301</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>15</v>
@@ -6065,10 +6068,10 @@
         <v>16</v>
       </c>
       <c r="K91" s="0">
-        <v>1435</v>
+        <v>1301</v>
       </c>
       <c r="L91" s="0">
-        <v>1450</v>
+        <v>1316</v>
       </c>
       <c r="M91" s="0" t="s">
         <v>156</v>
@@ -6082,7 +6085,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>1451</v>
+        <v>1317</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>15</v>
@@ -6112,10 +6115,10 @@
         <v>15</v>
       </c>
       <c r="K92" s="0">
-        <v>1451</v>
+        <v>1317</v>
       </c>
       <c r="L92" s="0">
-        <v>1465</v>
+        <v>1331</v>
       </c>
       <c r="M92" s="0" t="s">
         <v>158</v>
@@ -6129,7 +6132,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>1466</v>
+        <v>1332</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>15</v>
@@ -6159,10 +6162,10 @@
         <v>19</v>
       </c>
       <c r="K93" s="0">
-        <v>1466</v>
+        <v>1332</v>
       </c>
       <c r="L93" s="0">
-        <v>1484</v>
+        <v>1350</v>
       </c>
       <c r="M93" s="0" t="s">
         <v>160</v>
@@ -6176,7 +6179,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>1485</v>
+        <v>1351</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>15</v>
@@ -6206,10 +6209,10 @@
         <v>4</v>
       </c>
       <c r="K94" s="0">
-        <v>1485</v>
+        <v>1351</v>
       </c>
       <c r="L94" s="0">
-        <v>1488</v>
+        <v>1354</v>
       </c>
       <c r="M94" s="0" t="s">
         <v>162</v>
@@ -6223,7 +6226,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>1489</v>
+        <v>1355</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>15</v>
@@ -6253,10 +6256,10 @@
         <v>10</v>
       </c>
       <c r="K95" s="0">
-        <v>1489</v>
+        <v>1355</v>
       </c>
       <c r="L95" s="0">
-        <v>1498</v>
+        <v>1364</v>
       </c>
       <c r="M95" s="0" t="s">
         <v>164</v>
@@ -6270,7 +6273,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>1499</v>
+        <v>1365</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>15</v>
@@ -6300,10 +6303,10 @@
         <v>56</v>
       </c>
       <c r="K96" s="0">
-        <v>1499</v>
+        <v>1365</v>
       </c>
       <c r="L96" s="0">
-        <v>1517</v>
+        <v>1383</v>
       </c>
       <c r="M96" s="0" t="s">
         <v>166</v>
@@ -6317,7 +6320,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>1499</v>
+        <v>1365</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>15</v>
@@ -6347,10 +6350,10 @@
         <v>56</v>
       </c>
       <c r="K97" s="0">
-        <v>1518</v>
+        <v>1384</v>
       </c>
       <c r="L97" s="0">
-        <v>1536</v>
+        <v>1402</v>
       </c>
       <c r="M97" s="0" t="s">
         <v>167</v>
@@ -6364,7 +6367,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>1499</v>
+        <v>1365</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>15</v>
@@ -6394,10 +6397,10 @@
         <v>56</v>
       </c>
       <c r="K98" s="0">
-        <v>1537</v>
+        <v>1403</v>
       </c>
       <c r="L98" s="0">
-        <v>1554</v>
+        <v>1420</v>
       </c>
       <c r="M98" s="0" t="s">
         <v>168</v>
@@ -6411,7 +6414,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>1555</v>
+        <v>1421</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>15</v>
@@ -6441,10 +6444,10 @@
         <v>2</v>
       </c>
       <c r="K99" s="0">
-        <v>1555</v>
+        <v>1421</v>
       </c>
       <c r="L99" s="0">
-        <v>1556</v>
+        <v>1422</v>
       </c>
       <c r="M99" s="0" t="s">
         <v>170</v>
@@ -6458,7 +6461,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>1557</v>
+        <v>1423</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>15</v>
@@ -6488,10 +6491,10 @@
         <v>27</v>
       </c>
       <c r="K100" s="0">
-        <v>1557</v>
+        <v>1423</v>
       </c>
       <c r="L100" s="0">
-        <v>1570</v>
+        <v>1436</v>
       </c>
       <c r="M100" s="0" t="s">
         <v>172</v>
@@ -6505,7 +6508,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>1557</v>
+        <v>1423</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>15</v>
@@ -6535,10 +6538,10 @@
         <v>27</v>
       </c>
       <c r="K101" s="0">
-        <v>1571</v>
+        <v>1437</v>
       </c>
       <c r="L101" s="0">
-        <v>1583</v>
+        <v>1449</v>
       </c>
       <c r="M101" s="0" t="s">
         <v>173</v>
@@ -6552,7 +6555,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>1584</v>
+        <v>1450</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>15</v>
@@ -6582,10 +6585,10 @@
         <v>11</v>
       </c>
       <c r="K102" s="0">
-        <v>1584</v>
+        <v>1450</v>
       </c>
       <c r="L102" s="0">
-        <v>1594</v>
+        <v>1460</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>175</v>
@@ -6599,7 +6602,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>1595</v>
+        <v>1461</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>15</v>
@@ -6629,10 +6632,10 @@
         <v>29</v>
       </c>
       <c r="K103" s="0">
-        <v>1595</v>
+        <v>1461</v>
       </c>
       <c r="L103" s="0">
-        <v>1608</v>
+        <v>1474</v>
       </c>
       <c r="M103" s="0" t="s">
         <v>177</v>
@@ -6646,7 +6649,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>1595</v>
+        <v>1461</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>15</v>
@@ -6676,10 +6679,10 @@
         <v>29</v>
       </c>
       <c r="K104" s="0">
-        <v>1609</v>
+        <v>1475</v>
       </c>
       <c r="L104" s="0">
-        <v>1623</v>
+        <v>1489</v>
       </c>
       <c r="M104" s="0" t="s">
         <v>178</v>
@@ -6693,7 +6696,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>1624</v>
+        <v>1490</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>15</v>
@@ -6723,10 +6726,10 @@
         <v>14</v>
       </c>
       <c r="K105" s="0">
-        <v>1624</v>
+        <v>1490</v>
       </c>
       <c r="L105" s="0">
-        <v>1637</v>
+        <v>1503</v>
       </c>
       <c r="M105" s="0" t="s">
         <v>180</v>
@@ -6740,7 +6743,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>1638</v>
+        <v>1504</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>15</v>
@@ -6770,10 +6773,10 @@
         <v>23</v>
       </c>
       <c r="K106" s="0">
-        <v>1638</v>
+        <v>1504</v>
       </c>
       <c r="L106" s="0">
-        <v>1649</v>
+        <v>1515</v>
       </c>
       <c r="M106" s="0" t="s">
         <v>182</v>
@@ -6787,7 +6790,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>1638</v>
+        <v>1504</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>15</v>
@@ -6817,10 +6820,10 @@
         <v>23</v>
       </c>
       <c r="K107" s="0">
-        <v>1650</v>
+        <v>1516</v>
       </c>
       <c r="L107" s="0">
-        <v>1660</v>
+        <v>1526</v>
       </c>
       <c r="M107" s="0" t="s">
         <v>183</v>
@@ -6834,7 +6837,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>1661</v>
+        <v>1527</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>15</v>
@@ -6864,10 +6867,10 @@
         <v>61</v>
       </c>
       <c r="K108" s="0">
-        <v>1661</v>
+        <v>1527</v>
       </c>
       <c r="L108" s="0">
-        <v>1675</v>
+        <v>1541</v>
       </c>
       <c r="M108" s="0" t="s">
         <v>185</v>
@@ -6881,7 +6884,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>1661</v>
+        <v>1527</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>15</v>
@@ -6911,10 +6914,10 @@
         <v>61</v>
       </c>
       <c r="K109" s="0">
-        <v>1676</v>
+        <v>1542</v>
       </c>
       <c r="L109" s="0">
-        <v>1690</v>
+        <v>1556</v>
       </c>
       <c r="M109" s="0" t="s">
         <v>186</v>
@@ -6928,7 +6931,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>1661</v>
+        <v>1527</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>15</v>
@@ -6958,10 +6961,10 @@
         <v>61</v>
       </c>
       <c r="K110" s="0">
-        <v>1691</v>
+        <v>1557</v>
       </c>
       <c r="L110" s="0">
-        <v>1705</v>
+        <v>1571</v>
       </c>
       <c r="M110" s="0" t="s">
         <v>187</v>
@@ -6975,7 +6978,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>1661</v>
+        <v>1527</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>15</v>
@@ -7005,10 +7008,10 @@
         <v>61</v>
       </c>
       <c r="K111" s="0">
-        <v>1706</v>
+        <v>1572</v>
       </c>
       <c r="L111" s="0">
-        <v>1721</v>
+        <v>1587</v>
       </c>
       <c r="M111" s="0" t="s">
         <v>188</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>1722</v>
+        <v>1588</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>15</v>
@@ -7052,10 +7055,10 @@
         <v>33</v>
       </c>
       <c r="K112" s="0">
-        <v>1722</v>
+        <v>1588</v>
       </c>
       <c r="L112" s="0">
-        <v>1737</v>
+        <v>1603</v>
       </c>
       <c r="M112" s="0" t="s">
         <v>190</v>
@@ -7069,7 +7072,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>1722</v>
+        <v>1588</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>15</v>
@@ -7099,10 +7102,10 @@
         <v>33</v>
       </c>
       <c r="K113" s="0">
-        <v>1738</v>
+        <v>1604</v>
       </c>
       <c r="L113" s="0">
-        <v>1754</v>
+        <v>1620</v>
       </c>
       <c r="M113" s="0" t="s">
         <v>191</v>
@@ -7116,7 +7119,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>1755</v>
+        <v>1621</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>15</v>
@@ -7146,10 +7149,10 @@
         <v>37</v>
       </c>
       <c r="K114" s="0">
-        <v>1755</v>
+        <v>1621</v>
       </c>
       <c r="L114" s="0">
-        <v>1772</v>
+        <v>1638</v>
       </c>
       <c r="M114" s="0" t="s">
         <v>193</v>
@@ -7163,7 +7166,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>1755</v>
+        <v>1621</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>15</v>
@@ -7193,10 +7196,10 @@
         <v>37</v>
       </c>
       <c r="K115" s="0">
-        <v>1773</v>
+        <v>1639</v>
       </c>
       <c r="L115" s="0">
-        <v>1791</v>
+        <v>1657</v>
       </c>
       <c r="M115" s="0" t="s">
         <v>194</v>
@@ -7210,7 +7213,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>1792</v>
+        <v>1658</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>15</v>
@@ -7240,10 +7243,10 @@
         <v>68</v>
       </c>
       <c r="K116" s="0">
-        <v>1792</v>
+        <v>1658</v>
       </c>
       <c r="L116" s="0">
-        <v>1808</v>
+        <v>1674</v>
       </c>
       <c r="M116" s="0" t="s">
         <v>196</v>
@@ -7257,7 +7260,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>1792</v>
+        <v>1658</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>15</v>
@@ -7287,10 +7290,10 @@
         <v>68</v>
       </c>
       <c r="K117" s="0">
-        <v>1809</v>
+        <v>1675</v>
       </c>
       <c r="L117" s="0">
-        <v>1825</v>
+        <v>1691</v>
       </c>
       <c r="M117" s="0" t="s">
         <v>197</v>
@@ -7304,7 +7307,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>1792</v>
+        <v>1658</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>15</v>
@@ -7334,10 +7337,10 @@
         <v>68</v>
       </c>
       <c r="K118" s="0">
-        <v>1826</v>
+        <v>1692</v>
       </c>
       <c r="L118" s="0">
-        <v>1842</v>
+        <v>1708</v>
       </c>
       <c r="M118" s="0" t="s">
         <v>198</v>
@@ -7351,7 +7354,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>1792</v>
+        <v>1658</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>15</v>
@@ -7381,10 +7384,10 @@
         <v>68</v>
       </c>
       <c r="K119" s="0">
-        <v>1843</v>
+        <v>1709</v>
       </c>
       <c r="L119" s="0">
-        <v>1859</v>
+        <v>1725</v>
       </c>
       <c r="M119" s="0" t="s">
         <v>199</v>
@@ -7398,7 +7401,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>1860</v>
+        <v>1726</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>15</v>
@@ -7428,10 +7431,10 @@
         <v>6</v>
       </c>
       <c r="K120" s="0">
-        <v>1860</v>
+        <v>1726</v>
       </c>
       <c r="L120" s="0">
-        <v>1865</v>
+        <v>1731</v>
       </c>
       <c r="M120" s="0" t="s">
         <v>201</v>
@@ -7445,7 +7448,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>1866</v>
+        <v>1732</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>15</v>
@@ -7475,10 +7478,10 @@
         <v>29</v>
       </c>
       <c r="K121" s="0">
-        <v>1866</v>
+        <v>1732</v>
       </c>
       <c r="L121" s="0">
-        <v>1879</v>
+        <v>1745</v>
       </c>
       <c r="M121" s="0" t="s">
         <v>203</v>
@@ -7492,7 +7495,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>1866</v>
+        <v>1732</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>15</v>
@@ -7522,10 +7525,10 @@
         <v>29</v>
       </c>
       <c r="K122" s="0">
-        <v>1880</v>
+        <v>1746</v>
       </c>
       <c r="L122" s="0">
-        <v>1894</v>
+        <v>1760</v>
       </c>
       <c r="M122" s="0" t="s">
         <v>204</v>
@@ -7539,7 +7542,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>1895</v>
+        <v>1761</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>15</v>
@@ -7569,10 +7572,10 @@
         <v>14</v>
       </c>
       <c r="K123" s="0">
-        <v>1895</v>
+        <v>1761</v>
       </c>
       <c r="L123" s="0">
-        <v>1908</v>
+        <v>1774</v>
       </c>
       <c r="M123" s="0" t="s">
         <v>206</v>
@@ -7586,7 +7589,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>1909</v>
+        <v>1775</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>15</v>
@@ -7616,10 +7619,10 @@
         <v>8</v>
       </c>
       <c r="K124" s="0">
-        <v>1909</v>
+        <v>1775</v>
       </c>
       <c r="L124" s="0">
-        <v>1916</v>
+        <v>1782</v>
       </c>
       <c r="M124" s="0" t="s">
         <v>208</v>
@@ -7633,7 +7636,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>1917</v>
+        <v>1783</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>15</v>
@@ -7663,10 +7666,10 @@
         <v>10</v>
       </c>
       <c r="K125" s="0">
-        <v>1917</v>
+        <v>1783</v>
       </c>
       <c r="L125" s="0">
-        <v>1926</v>
+        <v>1792</v>
       </c>
       <c r="M125" s="0" t="s">
         <v>210</v>
@@ -7680,7 +7683,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>1927</v>
+        <v>1793</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>15</v>
@@ -7710,10 +7713,10 @@
         <v>6</v>
       </c>
       <c r="K126" s="0">
-        <v>1927</v>
+        <v>1793</v>
       </c>
       <c r="L126" s="0">
-        <v>1932</v>
+        <v>1798</v>
       </c>
       <c r="M126" s="0" t="s">
         <v>212</v>
@@ -7727,7 +7730,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>1933</v>
+        <v>1799</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>15</v>
@@ -7757,10 +7760,10 @@
         <v>19</v>
       </c>
       <c r="K127" s="0">
-        <v>1933</v>
+        <v>1799</v>
       </c>
       <c r="L127" s="0">
-        <v>1951</v>
+        <v>1817</v>
       </c>
       <c r="M127" s="0" t="s">
         <v>214</v>
@@ -7774,7 +7777,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>1952</v>
+        <v>1818</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>15</v>
@@ -7804,10 +7807,10 @@
         <v>24</v>
       </c>
       <c r="K128" s="0">
-        <v>1952</v>
+        <v>1818</v>
       </c>
       <c r="L128" s="0">
-        <v>1963</v>
+        <v>1829</v>
       </c>
       <c r="M128" s="0" t="s">
         <v>216</v>
@@ -7821,7 +7824,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>1952</v>
+        <v>1818</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>15</v>
@@ -7851,10 +7854,10 @@
         <v>24</v>
       </c>
       <c r="K129" s="0">
-        <v>1964</v>
+        <v>1830</v>
       </c>
       <c r="L129" s="0">
-        <v>1975</v>
+        <v>1841</v>
       </c>
       <c r="M129" s="0" t="s">
         <v>217</v>
@@ -7868,7 +7871,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>1976</v>
+        <v>1842</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>15</v>
@@ -7898,10 +7901,10 @@
         <v>40</v>
       </c>
       <c r="K130" s="0">
-        <v>1976</v>
+        <v>1842</v>
       </c>
       <c r="L130" s="0">
-        <v>1988</v>
+        <v>1854</v>
       </c>
       <c r="M130" s="0" t="s">
         <v>219</v>
@@ -7915,7 +7918,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>1976</v>
+        <v>1842</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>15</v>
@@ -7945,10 +7948,10 @@
         <v>40</v>
       </c>
       <c r="K131" s="0">
-        <v>1989</v>
+        <v>1855</v>
       </c>
       <c r="L131" s="0">
-        <v>2001</v>
+        <v>1867</v>
       </c>
       <c r="M131" s="0" t="s">
         <v>220</v>
@@ -7962,7 +7965,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>1976</v>
+        <v>1842</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>15</v>
@@ -7992,10 +7995,10 @@
         <v>40</v>
       </c>
       <c r="K132" s="0">
-        <v>2002</v>
+        <v>1868</v>
       </c>
       <c r="L132" s="0">
-        <v>2015</v>
+        <v>1881</v>
       </c>
       <c r="M132" s="0" t="s">
         <v>221</v>
@@ -8009,7 +8012,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>2016</v>
+        <v>1882</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>15</v>
@@ -8039,10 +8042,10 @@
         <v>27</v>
       </c>
       <c r="K133" s="0">
-        <v>2016</v>
+        <v>1882</v>
       </c>
       <c r="L133" s="0">
-        <v>2029</v>
+        <v>1895</v>
       </c>
       <c r="M133" s="0" t="s">
         <v>223</v>
@@ -8056,7 +8059,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>2016</v>
+        <v>1882</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>15</v>
@@ -8086,10 +8089,10 @@
         <v>27</v>
       </c>
       <c r="K134" s="0">
-        <v>2030</v>
+        <v>1896</v>
       </c>
       <c r="L134" s="0">
-        <v>2042</v>
+        <v>1908</v>
       </c>
       <c r="M134" s="0" t="s">
         <v>224</v>
@@ -8103,7 +8106,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>2043</v>
+        <v>1909</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>15</v>
@@ -8133,10 +8136,10 @@
         <v>21</v>
       </c>
       <c r="K135" s="0">
-        <v>2043</v>
+        <v>1909</v>
       </c>
       <c r="L135" s="0">
-        <v>2052</v>
+        <v>1918</v>
       </c>
       <c r="M135" s="0" t="s">
         <v>226</v>
@@ -8150,7 +8153,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>2043</v>
+        <v>1909</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>15</v>
@@ -8180,10 +8183,10 @@
         <v>21</v>
       </c>
       <c r="K136" s="0">
-        <v>2053</v>
+        <v>1919</v>
       </c>
       <c r="L136" s="0">
-        <v>2063</v>
+        <v>1929</v>
       </c>
       <c r="M136" s="0" t="s">
         <v>227</v>
@@ -8197,7 +8200,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>2064</v>
+        <v>1930</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>15</v>
@@ -8227,10 +8230,10 @@
         <v>10</v>
       </c>
       <c r="K137" s="0">
-        <v>2064</v>
+        <v>1930</v>
       </c>
       <c r="L137" s="0">
-        <v>2073</v>
+        <v>1939</v>
       </c>
       <c r="M137" s="0" t="s">
         <v>229</v>
@@ -8244,7 +8247,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>2074</v>
+        <v>1940</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>15</v>
@@ -8274,10 +8277,10 @@
         <v>13</v>
       </c>
       <c r="K138" s="0">
-        <v>2074</v>
+        <v>1940</v>
       </c>
       <c r="L138" s="0">
-        <v>2086</v>
+        <v>1952</v>
       </c>
       <c r="M138" s="0" t="s">
         <v>231</v>
@@ -8291,7 +8294,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>2087</v>
+        <v>1953</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>15</v>
@@ -8321,10 +8324,10 @@
         <v>30</v>
       </c>
       <c r="K139" s="0">
-        <v>2087</v>
+        <v>1953</v>
       </c>
       <c r="L139" s="0">
-        <v>2101</v>
+        <v>1967</v>
       </c>
       <c r="M139" s="0" t="s">
         <v>233</v>
@@ -8338,7 +8341,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>2087</v>
+        <v>1953</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>15</v>
@@ -8368,10 +8371,10 @@
         <v>30</v>
       </c>
       <c r="K140" s="0">
-        <v>2102</v>
+        <v>1968</v>
       </c>
       <c r="L140" s="0">
-        <v>2116</v>
+        <v>1982</v>
       </c>
       <c r="M140" s="0" t="s">
         <v>234</v>
@@ -8385,7 +8388,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>2117</v>
+        <v>1983</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>15</v>
@@ -8415,10 +8418,10 @@
         <v>7</v>
       </c>
       <c r="K141" s="0">
-        <v>2117</v>
+        <v>1983</v>
       </c>
       <c r="L141" s="0">
-        <v>2123</v>
+        <v>1989</v>
       </c>
       <c r="M141" s="0" t="s">
         <v>236</v>
@@ -8432,7 +8435,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>2124</v>
+        <v>1990</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>15</v>
@@ -8462,10 +8465,10 @@
         <v>12</v>
       </c>
       <c r="K142" s="0">
-        <v>2124</v>
+        <v>1990</v>
       </c>
       <c r="L142" s="0">
-        <v>2135</v>
+        <v>2001</v>
       </c>
       <c r="M142" s="0" t="s">
         <v>238</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>2136</v>
+        <v>2002</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>15</v>
@@ -8509,10 +8512,10 @@
         <v>4</v>
       </c>
       <c r="K143" s="0">
-        <v>2136</v>
+        <v>2002</v>
       </c>
       <c r="L143" s="0">
-        <v>2139</v>
+        <v>2005</v>
       </c>
       <c r="M143" s="0" t="s">
         <v>240</v>
@@ -8526,7 +8529,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>2140</v>
+        <v>2006</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>15</v>
@@ -8556,10 +8559,10 @@
         <v>6</v>
       </c>
       <c r="K144" s="0">
-        <v>2140</v>
+        <v>2006</v>
       </c>
       <c r="L144" s="0">
-        <v>2145</v>
+        <v>2011</v>
       </c>
       <c r="M144" s="0" t="s">
         <v>242</v>
@@ -8573,7 +8576,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>2146</v>
+        <v>2012</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>15</v>
@@ -8603,10 +8606,10 @@
         <v>8</v>
       </c>
       <c r="K145" s="0">
-        <v>2146</v>
+        <v>2012</v>
       </c>
       <c r="L145" s="0">
-        <v>2153</v>
+        <v>2019</v>
       </c>
       <c r="M145" s="0" t="s">
         <v>244</v>
@@ -8620,7 +8623,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>2154</v>
+        <v>2020</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>15</v>
@@ -8650,10 +8653,10 @@
         <v>15</v>
       </c>
       <c r="K146" s="0">
-        <v>2154</v>
+        <v>2020</v>
       </c>
       <c r="L146" s="0">
-        <v>2168</v>
+        <v>2034</v>
       </c>
       <c r="M146" s="0" t="s">
         <v>246</v>
@@ -8667,7 +8670,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>2169</v>
+        <v>2035</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>15</v>
@@ -8697,10 +8700,10 @@
         <v>10</v>
       </c>
       <c r="K147" s="0">
-        <v>2169</v>
+        <v>2035</v>
       </c>
       <c r="L147" s="0">
-        <v>2178</v>
+        <v>2044</v>
       </c>
       <c r="M147" s="0" t="s">
         <v>248</v>
@@ -8714,7 +8717,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>2179</v>
+        <v>2045</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>15</v>
@@ -8744,10 +8747,10 @@
         <v>17</v>
       </c>
       <c r="K148" s="0">
-        <v>2179</v>
+        <v>2045</v>
       </c>
       <c r="L148" s="0">
-        <v>2195</v>
+        <v>2061</v>
       </c>
       <c r="M148" s="0" t="s">
         <v>250</v>
@@ -8761,7 +8764,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>2196</v>
+        <v>2062</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>15</v>
@@ -8791,10 +8794,10 @@
         <v>10</v>
       </c>
       <c r="K149" s="0">
-        <v>2196</v>
+        <v>2062</v>
       </c>
       <c r="L149" s="0">
-        <v>2205</v>
+        <v>2071</v>
       </c>
       <c r="M149" s="0" t="s">
         <v>252</v>
@@ -8808,7 +8811,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>2206</v>
+        <v>2072</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>15</v>
@@ -8838,10 +8841,10 @@
         <v>7</v>
       </c>
       <c r="K150" s="0">
-        <v>2206</v>
+        <v>2072</v>
       </c>
       <c r="L150" s="0">
-        <v>2212</v>
+        <v>2078</v>
       </c>
       <c r="M150" s="0" t="s">
         <v>254</v>
@@ -8855,7 +8858,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>2213</v>
+        <v>2079</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>15</v>
@@ -8885,10 +8888,10 @@
         <v>6</v>
       </c>
       <c r="K151" s="0">
-        <v>2213</v>
+        <v>2079</v>
       </c>
       <c r="L151" s="0">
-        <v>2218</v>
+        <v>2084</v>
       </c>
       <c r="M151" s="0" t="s">
         <v>256</v>
@@ -8902,7 +8905,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>2219</v>
+        <v>2085</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>15</v>
@@ -8932,10 +8935,10 @@
         <v>14</v>
       </c>
       <c r="K152" s="0">
-        <v>2219</v>
+        <v>2085</v>
       </c>
       <c r="L152" s="0">
-        <v>2232</v>
+        <v>2098</v>
       </c>
       <c r="M152" s="0" t="s">
         <v>258</v>
@@ -8949,7 +8952,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>2233</v>
+        <v>2099</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>15</v>
@@ -8979,10 +8982,10 @@
         <v>3</v>
       </c>
       <c r="K153" s="0">
-        <v>2233</v>
+        <v>2099</v>
       </c>
       <c r="L153" s="0">
-        <v>2235</v>
+        <v>2101</v>
       </c>
       <c r="M153" s="0" t="s">
         <v>260</v>
@@ -8996,7 +8999,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>2236</v>
+        <v>2102</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>15</v>
@@ -9026,10 +9029,10 @@
         <v>3</v>
       </c>
       <c r="K154" s="0">
-        <v>2236</v>
+        <v>2102</v>
       </c>
       <c r="L154" s="0">
-        <v>2238</v>
+        <v>2104</v>
       </c>
       <c r="M154" s="0" t="s">
         <v>262</v>
@@ -9043,7 +9046,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>2239</v>
+        <v>2105</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>15</v>
@@ -9073,10 +9076,10 @@
         <v>4</v>
       </c>
       <c r="K155" s="0">
-        <v>2239</v>
+        <v>2105</v>
       </c>
       <c r="L155" s="0">
-        <v>2242</v>
+        <v>2108</v>
       </c>
       <c r="M155" s="0" t="s">
         <v>264</v>
@@ -9090,7 +9093,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>2243</v>
+        <v>2109</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>15</v>
@@ -9120,10 +9123,10 @@
         <v>3</v>
       </c>
       <c r="K156" s="0">
-        <v>2243</v>
+        <v>2109</v>
       </c>
       <c r="L156" s="0">
-        <v>2245</v>
+        <v>2111</v>
       </c>
       <c r="M156" s="0" t="s">
         <v>266</v>
@@ -9137,7 +9140,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>2246</v>
+        <v>2112</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>15</v>
@@ -9167,10 +9170,10 @@
         <v>8</v>
       </c>
       <c r="K157" s="0">
-        <v>2246</v>
+        <v>2112</v>
       </c>
       <c r="L157" s="0">
-        <v>2253</v>
+        <v>2119</v>
       </c>
       <c r="M157" s="0" t="s">
         <v>268</v>
@@ -9184,7 +9187,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>2254</v>
+        <v>2120</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>15</v>
@@ -9214,10 +9217,10 @@
         <v>5</v>
       </c>
       <c r="K158" s="0">
-        <v>2254</v>
+        <v>2120</v>
       </c>
       <c r="L158" s="0">
-        <v>2258</v>
+        <v>2124</v>
       </c>
       <c r="M158" s="0" t="s">
         <v>270</v>
@@ -9231,7 +9234,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>2259</v>
+        <v>2125</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>15</v>
@@ -9261,10 +9264,10 @@
         <v>9</v>
       </c>
       <c r="K159" s="0">
-        <v>2259</v>
+        <v>2125</v>
       </c>
       <c r="L159" s="0">
-        <v>2267</v>
+        <v>2133</v>
       </c>
       <c r="M159" s="0" t="s">
         <v>272</v>
@@ -9278,7 +9281,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>2268</v>
+        <v>2134</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>15</v>
@@ -9308,10 +9311,10 @@
         <v>20</v>
       </c>
       <c r="K160" s="0">
-        <v>2268</v>
+        <v>2134</v>
       </c>
       <c r="L160" s="0">
-        <v>2277</v>
+        <v>2143</v>
       </c>
       <c r="M160" s="0" t="s">
         <v>274</v>
@@ -9325,7 +9328,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>2268</v>
+        <v>2134</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>15</v>
@@ -9355,10 +9358,10 @@
         <v>20</v>
       </c>
       <c r="K161" s="0">
-        <v>2278</v>
+        <v>2144</v>
       </c>
       <c r="L161" s="0">
-        <v>2287</v>
+        <v>2153</v>
       </c>
       <c r="M161" s="0" t="s">
         <v>275</v>
@@ -9372,7 +9375,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>2288</v>
+        <v>2154</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>15</v>
@@ -9402,10 +9405,10 @@
         <v>6</v>
       </c>
       <c r="K162" s="0">
-        <v>2288</v>
+        <v>2154</v>
       </c>
       <c r="L162" s="0">
-        <v>2293</v>
+        <v>2159</v>
       </c>
       <c r="M162" s="0" t="s">
         <v>277</v>
@@ -9419,7 +9422,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>2294</v>
+        <v>2160</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>15</v>
@@ -9449,10 +9452,10 @@
         <v>8</v>
       </c>
       <c r="K163" s="0">
-        <v>2294</v>
+        <v>2160</v>
       </c>
       <c r="L163" s="0">
-        <v>2301</v>
+        <v>2167</v>
       </c>
       <c r="M163" s="0" t="s">
         <v>279</v>
@@ -9466,7 +9469,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>2302</v>
+        <v>2168</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>15</v>
@@ -9496,10 +9499,10 @@
         <v>8</v>
       </c>
       <c r="K164" s="0">
-        <v>2302</v>
+        <v>2168</v>
       </c>
       <c r="L164" s="0">
-        <v>2309</v>
+        <v>2175</v>
       </c>
       <c r="M164" s="0" t="s">
         <v>281</v>
@@ -9513,7 +9516,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>2310</v>
+        <v>2176</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>15</v>
@@ -9543,10 +9546,10 @@
         <v>8</v>
       </c>
       <c r="K165" s="0">
-        <v>2310</v>
+        <v>2176</v>
       </c>
       <c r="L165" s="0">
-        <v>2317</v>
+        <v>2183</v>
       </c>
       <c r="M165" s="0" t="s">
         <v>283</v>
@@ -9560,7 +9563,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>2318</v>
+        <v>2184</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>15</v>
@@ -9590,10 +9593,10 @@
         <v>60</v>
       </c>
       <c r="K166" s="0">
-        <v>2318</v>
+        <v>2184</v>
       </c>
       <c r="L166" s="0">
-        <v>2332</v>
+        <v>2198</v>
       </c>
       <c r="M166" s="0" t="s">
         <v>285</v>
@@ -9607,7 +9610,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>2318</v>
+        <v>2184</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>15</v>
@@ -9637,10 +9640,10 @@
         <v>60</v>
       </c>
       <c r="K167" s="0">
-        <v>2333</v>
+        <v>2199</v>
       </c>
       <c r="L167" s="0">
-        <v>2347</v>
+        <v>2213</v>
       </c>
       <c r="M167" s="0" t="s">
         <v>286</v>
@@ -9654,7 +9657,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>2318</v>
+        <v>2184</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>15</v>
@@ -9684,10 +9687,10 @@
         <v>60</v>
       </c>
       <c r="K168" s="0">
-        <v>2348</v>
+        <v>2214</v>
       </c>
       <c r="L168" s="0">
-        <v>2362</v>
+        <v>2228</v>
       </c>
       <c r="M168" s="0" t="s">
         <v>287</v>
@@ -9701,7 +9704,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>2318</v>
+        <v>2184</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>15</v>
@@ -9731,10 +9734,10 @@
         <v>60</v>
       </c>
       <c r="K169" s="0">
-        <v>2363</v>
+        <v>2229</v>
       </c>
       <c r="L169" s="0">
-        <v>2377</v>
+        <v>2243</v>
       </c>
       <c r="M169" s="0" t="s">
         <v>288</v>
@@ -9748,7 +9751,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>2378</v>
+        <v>2244</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>15</v>
@@ -9778,10 +9781,10 @@
         <v>2</v>
       </c>
       <c r="K170" s="0">
-        <v>2378</v>
+        <v>2244</v>
       </c>
       <c r="L170" s="0">
-        <v>2379</v>
+        <v>2245</v>
       </c>
       <c r="M170" s="0" t="s">
         <v>290</v>
@@ -9795,7 +9798,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>2380</v>
+        <v>2246</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>15</v>
@@ -9825,10 +9828,10 @@
         <v>6</v>
       </c>
       <c r="K171" s="0">
-        <v>2380</v>
+        <v>2246</v>
       </c>
       <c r="L171" s="0">
-        <v>2385</v>
+        <v>2251</v>
       </c>
       <c r="M171" s="0" t="s">
         <v>292</v>
@@ -9842,7 +9845,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>2386</v>
+        <v>2252</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>15</v>
@@ -9872,10 +9875,10 @@
         <v>1</v>
       </c>
       <c r="K172" s="0">
-        <v>2386</v>
+        <v>2252</v>
       </c>
       <c r="L172" s="0">
-        <v>2386</v>
+        <v>2252</v>
       </c>
       <c r="M172" s="0" t="s">
         <v>294</v>
@@ -9889,7 +9892,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>2387</v>
+        <v>2253</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>15</v>
@@ -9919,10 +9922,10 @@
         <v>29</v>
       </c>
       <c r="K173" s="0">
-        <v>2387</v>
+        <v>2253</v>
       </c>
       <c r="L173" s="0">
-        <v>2400</v>
+        <v>2266</v>
       </c>
       <c r="M173" s="0" t="s">
         <v>296</v>
@@ -9936,7 +9939,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>2387</v>
+        <v>2253</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>15</v>
@@ -9966,10 +9969,10 @@
         <v>29</v>
       </c>
       <c r="K174" s="0">
-        <v>2401</v>
+        <v>2267</v>
       </c>
       <c r="L174" s="0">
-        <v>2415</v>
+        <v>2281</v>
       </c>
       <c r="M174" s="0" t="s">
         <v>297</v>
@@ -9983,7 +9986,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>2416</v>
+        <v>2282</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>15</v>
@@ -10013,10 +10016,10 @@
         <v>14</v>
       </c>
       <c r="K175" s="0">
-        <v>2416</v>
+        <v>2282</v>
       </c>
       <c r="L175" s="0">
-        <v>2429</v>
+        <v>2295</v>
       </c>
       <c r="M175" s="0" t="s">
         <v>299</v>
@@ -10030,7 +10033,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>2430</v>
+        <v>2296</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>15</v>
@@ -10060,10 +10063,10 @@
         <v>75</v>
       </c>
       <c r="K176" s="0">
-        <v>2430</v>
+        <v>2296</v>
       </c>
       <c r="L176" s="0">
-        <v>2448</v>
+        <v>2314</v>
       </c>
       <c r="M176" s="0" t="s">
         <v>301</v>
@@ -10077,7 +10080,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>2430</v>
+        <v>2296</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>15</v>
@@ -10107,10 +10110,10 @@
         <v>75</v>
       </c>
       <c r="K177" s="0">
-        <v>2449</v>
+        <v>2315</v>
       </c>
       <c r="L177" s="0">
-        <v>2467</v>
+        <v>2333</v>
       </c>
       <c r="M177" s="0" t="s">
         <v>302</v>
@@ -10124,7 +10127,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>2430</v>
+        <v>2296</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>15</v>
@@ -10154,10 +10157,10 @@
         <v>75</v>
       </c>
       <c r="K178" s="0">
-        <v>2468</v>
+        <v>2334</v>
       </c>
       <c r="L178" s="0">
-        <v>2486</v>
+        <v>2352</v>
       </c>
       <c r="M178" s="0" t="s">
         <v>303</v>
@@ -10171,7 +10174,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>2430</v>
+        <v>2296</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>15</v>
@@ -10201,10 +10204,10 @@
         <v>75</v>
       </c>
       <c r="K179" s="0">
-        <v>2487</v>
+        <v>2353</v>
       </c>
       <c r="L179" s="0">
-        <v>2504</v>
+        <v>2370</v>
       </c>
       <c r="M179" s="0" t="s">
         <v>304</v>
@@ -10218,7 +10221,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>2505</v>
+        <v>2371</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>15</v>
@@ -10248,10 +10251,10 @@
         <v>27</v>
       </c>
       <c r="K180" s="0">
-        <v>2505</v>
+        <v>2371</v>
       </c>
       <c r="L180" s="0">
-        <v>2518</v>
+        <v>2384</v>
       </c>
       <c r="M180" s="0" t="s">
         <v>306</v>
@@ -10265,7 +10268,7 @@
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>2505</v>
+        <v>2371</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>15</v>
@@ -10295,10 +10298,10 @@
         <v>27</v>
       </c>
       <c r="K181" s="0">
-        <v>2519</v>
+        <v>2385</v>
       </c>
       <c r="L181" s="0">
-        <v>2531</v>
+        <v>2397</v>
       </c>
       <c r="M181" s="0" t="s">
         <v>307</v>
@@ -10312,7 +10315,7 @@
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>2532</v>
+        <v>2398</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>15</v>
@@ -10342,10 +10345,10 @@
         <v>30</v>
       </c>
       <c r="K182" s="0">
-        <v>2532</v>
+        <v>2398</v>
       </c>
       <c r="L182" s="0">
-        <v>2546</v>
+        <v>2412</v>
       </c>
       <c r="M182" s="0" t="s">
         <v>309</v>
@@ -10359,7 +10362,7 @@
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>2532</v>
+        <v>2398</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>15</v>
@@ -10389,10 +10392,10 @@
         <v>30</v>
       </c>
       <c r="K183" s="0">
-        <v>2547</v>
+        <v>2413</v>
       </c>
       <c r="L183" s="0">
-        <v>2561</v>
+        <v>2427</v>
       </c>
       <c r="M183" s="0" t="s">
         <v>310</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>2562</v>
+        <v>2428</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>15</v>
@@ -10436,10 +10439,10 @@
         <v>13</v>
       </c>
       <c r="K184" s="0">
-        <v>2562</v>
+        <v>2428</v>
       </c>
       <c r="L184" s="0">
-        <v>2574</v>
+        <v>2440</v>
       </c>
       <c r="M184" s="0" t="s">
         <v>312</v>
@@ -10453,7 +10456,7 @@
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>2575</v>
+        <v>2441</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>15</v>
@@ -10483,10 +10486,10 @@
         <v>11</v>
       </c>
       <c r="K185" s="0">
-        <v>2575</v>
+        <v>2441</v>
       </c>
       <c r="L185" s="0">
-        <v>2585</v>
+        <v>2451</v>
       </c>
       <c r="M185" s="0" t="s">
         <v>314</v>
@@ -10500,7 +10503,7 @@
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>2586</v>
+        <v>2452</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>15</v>
@@ -10530,10 +10533,10 @@
         <v>4</v>
       </c>
       <c r="K186" s="0">
-        <v>2586</v>
+        <v>2452</v>
       </c>
       <c r="L186" s="0">
-        <v>2589</v>
+        <v>2455</v>
       </c>
       <c r="M186" s="0" t="s">
         <v>316</v>
@@ -10547,7 +10550,7 @@
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>2590</v>
+        <v>2456</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>15</v>
@@ -10577,10 +10580,10 @@
         <v>16</v>
       </c>
       <c r="K187" s="0">
-        <v>2590</v>
+        <v>2456</v>
       </c>
       <c r="L187" s="0">
-        <v>2605</v>
+        <v>2471</v>
       </c>
       <c r="M187" s="0" t="s">
         <v>318</v>
@@ -10594,7 +10597,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>2606</v>
+        <v>2472</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>15</v>
@@ -10624,10 +10627,10 @@
         <v>5</v>
       </c>
       <c r="K188" s="0">
-        <v>2606</v>
+        <v>2472</v>
       </c>
       <c r="L188" s="0">
-        <v>2610</v>
+        <v>2476</v>
       </c>
       <c r="M188" s="0" t="s">
         <v>320</v>
@@ -10641,7 +10644,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>2611</v>
+        <v>2477</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>15</v>
@@ -10671,10 +10674,10 @@
         <v>4</v>
       </c>
       <c r="K189" s="0">
-        <v>2611</v>
+        <v>2477</v>
       </c>
       <c r="L189" s="0">
-        <v>2614</v>
+        <v>2480</v>
       </c>
       <c r="M189" s="0" t="s">
         <v>322</v>
@@ -10688,7 +10691,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>2615</v>
+        <v>2481</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>15</v>
@@ -10718,10 +10721,10 @@
         <v>4</v>
       </c>
       <c r="K190" s="0">
-        <v>2615</v>
+        <v>2481</v>
       </c>
       <c r="L190" s="0">
-        <v>2618</v>
+        <v>2484</v>
       </c>
       <c r="M190" s="0" t="s">
         <v>324</v>
@@ -10735,7 +10738,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>2619</v>
+        <v>2485</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>15</v>
@@ -10765,10 +10768,10 @@
         <v>11</v>
       </c>
       <c r="K191" s="0">
-        <v>2619</v>
+        <v>2485</v>
       </c>
       <c r="L191" s="0">
-        <v>2629</v>
+        <v>2495</v>
       </c>
       <c r="M191" s="0" t="s">
         <v>326</v>
@@ -10782,7 +10785,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>2630</v>
+        <v>2496</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>15</v>
@@ -10812,10 +10815,10 @@
         <v>5</v>
       </c>
       <c r="K192" s="0">
-        <v>2630</v>
+        <v>2496</v>
       </c>
       <c r="L192" s="0">
-        <v>2634</v>
+        <v>2500</v>
       </c>
       <c r="M192" s="0" t="s">
         <v>328</v>
@@ -10829,7 +10832,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>2635</v>
+        <v>2501</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>15</v>
@@ -10859,10 +10862,10 @@
         <v>5</v>
       </c>
       <c r="K193" s="0">
-        <v>2635</v>
+        <v>2501</v>
       </c>
       <c r="L193" s="0">
-        <v>2639</v>
+        <v>2505</v>
       </c>
       <c r="M193" s="0" t="s">
         <v>330</v>
@@ -10876,7 +10879,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>2640</v>
+        <v>2506</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>15</v>
@@ -10906,10 +10909,10 @@
         <v>3</v>
       </c>
       <c r="K194" s="0">
-        <v>2640</v>
+        <v>2506</v>
       </c>
       <c r="L194" s="0">
-        <v>2642</v>
+        <v>2508</v>
       </c>
       <c r="M194" s="0" t="s">
         <v>332</v>
@@ -10923,7 +10926,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>2643</v>
+        <v>2509</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>15</v>
@@ -10953,10 +10956,10 @@
         <v>6</v>
       </c>
       <c r="K195" s="0">
-        <v>2643</v>
+        <v>2509</v>
       </c>
       <c r="L195" s="0">
-        <v>2648</v>
+        <v>2514</v>
       </c>
       <c r="M195" s="0" t="s">
         <v>334</v>
@@ -10970,7 +10973,7 @@
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>2649</v>
+        <v>2515</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>15</v>
@@ -11000,10 +11003,10 @@
         <v>4</v>
       </c>
       <c r="K196" s="0">
-        <v>2649</v>
+        <v>2515</v>
       </c>
       <c r="L196" s="0">
-        <v>2652</v>
+        <v>2518</v>
       </c>
       <c r="M196" s="0" t="s">
         <v>336</v>
@@ -11017,7 +11020,7 @@
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>2653</v>
+        <v>2519</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>15</v>
@@ -11047,10 +11050,10 @@
         <v>3</v>
       </c>
       <c r="K197" s="0">
-        <v>2653</v>
+        <v>2519</v>
       </c>
       <c r="L197" s="0">
-        <v>2655</v>
+        <v>2521</v>
       </c>
       <c r="M197" s="0" t="s">
         <v>338</v>
@@ -11064,7 +11067,7 @@
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>2656</v>
+        <v>2522</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>15</v>
@@ -11094,10 +11097,10 @@
         <v>3</v>
       </c>
       <c r="K198" s="0">
-        <v>2656</v>
+        <v>2522</v>
       </c>
       <c r="L198" s="0">
-        <v>2658</v>
+        <v>2524</v>
       </c>
       <c r="M198" s="0" t="s">
         <v>340</v>
@@ -11111,7 +11114,7 @@
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>2659</v>
+        <v>2525</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>15</v>
@@ -11141,10 +11144,10 @@
         <v>13</v>
       </c>
       <c r="K199" s="0">
-        <v>2659</v>
+        <v>2525</v>
       </c>
       <c r="L199" s="0">
-        <v>2671</v>
+        <v>2537</v>
       </c>
       <c r="M199" s="0" t="s">
         <v>342</v>
@@ -11158,7 +11161,7 @@
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>2672</v>
+        <v>2538</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>15</v>
@@ -11188,10 +11191,10 @@
         <v>22</v>
       </c>
       <c r="K200" s="0">
-        <v>2672</v>
+        <v>2538</v>
       </c>
       <c r="L200" s="0">
-        <v>2682</v>
+        <v>2548</v>
       </c>
       <c r="M200" s="0" t="s">
         <v>344</v>
@@ -11205,7 +11208,7 @@
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>2672</v>
+        <v>2538</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>15</v>
@@ -11235,10 +11238,10 @@
         <v>22</v>
       </c>
       <c r="K201" s="0">
-        <v>2683</v>
+        <v>2549</v>
       </c>
       <c r="L201" s="0">
-        <v>2693</v>
+        <v>2559</v>
       </c>
       <c r="M201" s="0" t="s">
         <v>345</v>
@@ -11252,7 +11255,7 @@
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>2694</v>
+        <v>2560</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>15</v>
@@ -11282,10 +11285,10 @@
         <v>21</v>
       </c>
       <c r="K202" s="0">
-        <v>2694</v>
+        <v>2560</v>
       </c>
       <c r="L202" s="0">
-        <v>2703</v>
+        <v>2569</v>
       </c>
       <c r="M202" s="0" t="s">
         <v>347</v>
@@ -11299,7 +11302,7 @@
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>2694</v>
+        <v>2560</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>15</v>
@@ -11329,10 +11332,10 @@
         <v>21</v>
       </c>
       <c r="K203" s="0">
-        <v>2704</v>
+        <v>2570</v>
       </c>
       <c r="L203" s="0">
-        <v>2714</v>
+        <v>2580</v>
       </c>
       <c r="M203" s="0" t="s">
         <v>348</v>
@@ -11346,7 +11349,7 @@
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>2715</v>
+        <v>2581</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>15</v>
@@ -11376,10 +11379,10 @@
         <v>29</v>
       </c>
       <c r="K204" s="0">
-        <v>2715</v>
+        <v>2581</v>
       </c>
       <c r="L204" s="0">
-        <v>2728</v>
+        <v>2594</v>
       </c>
       <c r="M204" s="0" t="s">
         <v>350</v>
@@ -11393,7 +11396,7 @@
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>2715</v>
+        <v>2581</v>
       </c>
       <c r="B205" s="0" t="s">
         <v>15</v>
@@ -11423,10 +11426,10 @@
         <v>29</v>
       </c>
       <c r="K205" s="0">
-        <v>2729</v>
+        <v>2595</v>
       </c>
       <c r="L205" s="0">
-        <v>2743</v>
+        <v>2609</v>
       </c>
       <c r="M205" s="0" t="s">
         <v>351</v>
@@ -11440,7 +11443,7 @@
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>2744</v>
+        <v>2610</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>15</v>
@@ -11470,10 +11473,10 @@
         <v>88</v>
       </c>
       <c r="K206" s="0">
-        <v>2744</v>
+        <v>2610</v>
       </c>
       <c r="L206" s="0">
-        <v>2761</v>
+        <v>2627</v>
       </c>
       <c r="M206" s="0" t="s">
         <v>353</v>
@@ -11487,7 +11490,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>2744</v>
+        <v>2610</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>15</v>
@@ -11517,10 +11520,10 @@
         <v>88</v>
       </c>
       <c r="K207" s="0">
-        <v>2762</v>
+        <v>2628</v>
       </c>
       <c r="L207" s="0">
-        <v>2779</v>
+        <v>2645</v>
       </c>
       <c r="M207" s="0" t="s">
         <v>354</v>
@@ -11534,7 +11537,7 @@
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>2744</v>
+        <v>2610</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>15</v>
@@ -11564,10 +11567,10 @@
         <v>88</v>
       </c>
       <c r="K208" s="0">
-        <v>2780</v>
+        <v>2646</v>
       </c>
       <c r="L208" s="0">
-        <v>2797</v>
+        <v>2663</v>
       </c>
       <c r="M208" s="0" t="s">
         <v>355</v>
@@ -11581,7 +11584,7 @@
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>2744</v>
+        <v>2610</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>15</v>
@@ -11611,10 +11614,10 @@
         <v>88</v>
       </c>
       <c r="K209" s="0">
-        <v>2798</v>
+        <v>2664</v>
       </c>
       <c r="L209" s="0">
-        <v>2815</v>
+        <v>2681</v>
       </c>
       <c r="M209" s="0" t="s">
         <v>356</v>
@@ -11628,7 +11631,7 @@
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>2744</v>
+        <v>2610</v>
       </c>
       <c r="B210" s="0" t="s">
         <v>15</v>
@@ -11658,10 +11661,10 @@
         <v>88</v>
       </c>
       <c r="K210" s="0">
-        <v>2816</v>
+        <v>2682</v>
       </c>
       <c r="L210" s="0">
-        <v>2831</v>
+        <v>2697</v>
       </c>
       <c r="M210" s="0" t="s">
         <v>357</v>
@@ -11675,7 +11678,7 @@
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>2832</v>
+        <v>2698</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>15</v>
@@ -11705,10 +11708,10 @@
         <v>88</v>
       </c>
       <c r="K211" s="0">
-        <v>2832</v>
+        <v>2698</v>
       </c>
       <c r="L211" s="0">
-        <v>2849</v>
+        <v>2715</v>
       </c>
       <c r="M211" s="0" t="s">
         <v>359</v>
@@ -11722,7 +11725,7 @@
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>2832</v>
+        <v>2698</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>15</v>
@@ -11752,10 +11755,10 @@
         <v>88</v>
       </c>
       <c r="K212" s="0">
-        <v>2850</v>
+        <v>2716</v>
       </c>
       <c r="L212" s="0">
-        <v>2867</v>
+        <v>2733</v>
       </c>
       <c r="M212" s="0" t="s">
         <v>360</v>
@@ -11769,7 +11772,7 @@
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>2832</v>
+        <v>2698</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>15</v>
@@ -11799,10 +11802,10 @@
         <v>88</v>
       </c>
       <c r="K213" s="0">
-        <v>2868</v>
+        <v>2734</v>
       </c>
       <c r="L213" s="0">
-        <v>2885</v>
+        <v>2751</v>
       </c>
       <c r="M213" s="0" t="s">
         <v>361</v>
@@ -11816,7 +11819,7 @@
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>2832</v>
+        <v>2698</v>
       </c>
       <c r="B214" s="0" t="s">
         <v>15</v>
@@ -11846,10 +11849,10 @@
         <v>88</v>
       </c>
       <c r="K214" s="0">
-        <v>2886</v>
+        <v>2752</v>
       </c>
       <c r="L214" s="0">
-        <v>2903</v>
+        <v>2769</v>
       </c>
       <c r="M214" s="0" t="s">
         <v>362</v>
@@ -11863,7 +11866,7 @@
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>2832</v>
+        <v>2698</v>
       </c>
       <c r="B215" s="0" t="s">
         <v>15</v>
@@ -11893,10 +11896,10 @@
         <v>88</v>
       </c>
       <c r="K215" s="0">
-        <v>2904</v>
+        <v>2770</v>
       </c>
       <c r="L215" s="0">
-        <v>2919</v>
+        <v>2785</v>
       </c>
       <c r="M215" s="0" t="s">
         <v>363</v>
@@ -11910,7 +11913,7 @@
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>2920</v>
+        <v>2786</v>
       </c>
       <c r="B216" s="0" t="s">
         <v>15</v>
@@ -11940,10 +11943,10 @@
         <v>24</v>
       </c>
       <c r="K216" s="0">
-        <v>2920</v>
+        <v>2786</v>
       </c>
       <c r="L216" s="0">
-        <v>2931</v>
+        <v>2797</v>
       </c>
       <c r="M216" s="0" t="s">
         <v>365</v>
@@ -11957,7 +11960,7 @@
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>2920</v>
+        <v>2786</v>
       </c>
       <c r="B217" s="0" t="s">
         <v>15</v>
@@ -11987,10 +11990,10 @@
         <v>24</v>
       </c>
       <c r="K217" s="0">
-        <v>2932</v>
+        <v>2798</v>
       </c>
       <c r="L217" s="0">
-        <v>2943</v>
+        <v>2809</v>
       </c>
       <c r="M217" s="0" t="s">
         <v>366</v>
@@ -12004,7 +12007,7 @@
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>2944</v>
+        <v>2810</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>15</v>
@@ -12034,10 +12037,10 @@
         <v>15</v>
       </c>
       <c r="K218" s="0">
-        <v>2944</v>
+        <v>2810</v>
       </c>
       <c r="L218" s="0">
-        <v>2958</v>
+        <v>2824</v>
       </c>
       <c r="M218" s="0" t="s">
         <v>368</v>
@@ -12051,7 +12054,7 @@
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>2959</v>
+        <v>2825</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>15</v>
@@ -12081,10 +12084,10 @@
         <v>13</v>
       </c>
       <c r="K219" s="0">
-        <v>2959</v>
+        <v>2825</v>
       </c>
       <c r="L219" s="0">
-        <v>2971</v>
+        <v>2837</v>
       </c>
       <c r="M219" s="0" t="s">
         <v>370</v>
@@ -12098,7 +12101,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>2972</v>
+        <v>2838</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>15</v>
@@ -12128,10 +12131,10 @@
         <v>2</v>
       </c>
       <c r="K220" s="0">
-        <v>2972</v>
+        <v>2838</v>
       </c>
       <c r="L220" s="0">
-        <v>2973</v>
+        <v>2839</v>
       </c>
       <c r="M220" s="0" t="s">
         <v>372</v>
@@ -12145,7 +12148,7 @@
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>2974</v>
+        <v>2840</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>15</v>
@@ -12175,10 +12178,10 @@
         <v>26</v>
       </c>
       <c r="K221" s="0">
-        <v>2974</v>
+        <v>2840</v>
       </c>
       <c r="L221" s="0">
-        <v>2986</v>
+        <v>2852</v>
       </c>
       <c r="M221" s="0" t="s">
         <v>374</v>
@@ -12192,7 +12195,7 @@
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>2974</v>
+        <v>2840</v>
       </c>
       <c r="B222" s="0" t="s">
         <v>15</v>
@@ -12222,10 +12225,10 @@
         <v>26</v>
       </c>
       <c r="K222" s="0">
-        <v>2987</v>
+        <v>2853</v>
       </c>
       <c r="L222" s="0">
-        <v>2999</v>
+        <v>2865</v>
       </c>
       <c r="M222" s="0" t="s">
         <v>375</v>
@@ -12239,7 +12242,7 @@
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>3000</v>
+        <v>2866</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>15</v>
@@ -12269,10 +12272,10 @@
         <v>11</v>
       </c>
       <c r="K223" s="0">
-        <v>3000</v>
+        <v>2866</v>
       </c>
       <c r="L223" s="0">
-        <v>3010</v>
+        <v>2876</v>
       </c>
       <c r="M223" s="0" t="s">
         <v>377</v>
@@ -12286,7 +12289,7 @@
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>3011</v>
+        <v>2877</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>15</v>
@@ -12316,10 +12319,10 @@
         <v>10</v>
       </c>
       <c r="K224" s="0">
-        <v>3011</v>
+        <v>2877</v>
       </c>
       <c r="L224" s="0">
-        <v>3020</v>
+        <v>2886</v>
       </c>
       <c r="M224" s="0" t="s">
         <v>379</v>
@@ -12333,7 +12336,7 @@
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>3021</v>
+        <v>2887</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>15</v>
@@ -12363,10 +12366,10 @@
         <v>16</v>
       </c>
       <c r="K225" s="0">
-        <v>3021</v>
+        <v>2887</v>
       </c>
       <c r="L225" s="0">
-        <v>3036</v>
+        <v>2902</v>
       </c>
       <c r="M225" s="0" t="s">
         <v>381</v>
@@ -12380,7 +12383,7 @@
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>3037</v>
+        <v>2903</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>15</v>
@@ -12410,10 +12413,10 @@
         <v>14</v>
       </c>
       <c r="K226" s="0">
-        <v>3037</v>
+        <v>2903</v>
       </c>
       <c r="L226" s="0">
-        <v>3050</v>
+        <v>2916</v>
       </c>
       <c r="M226" s="0" t="s">
         <v>383</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>3051</v>
+        <v>2917</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>15</v>
@@ -12457,10 +12460,10 @@
         <v>22</v>
       </c>
       <c r="K227" s="0">
-        <v>3051</v>
+        <v>2917</v>
       </c>
       <c r="L227" s="0">
-        <v>3061</v>
+        <v>2927</v>
       </c>
       <c r="M227" s="0" t="s">
         <v>385</v>
@@ -12474,7 +12477,7 @@
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>3051</v>
+        <v>2917</v>
       </c>
       <c r="B228" s="0" t="s">
         <v>15</v>
@@ -12504,10 +12507,10 @@
         <v>22</v>
       </c>
       <c r="K228" s="0">
-        <v>3062</v>
+        <v>2928</v>
       </c>
       <c r="L228" s="0">
-        <v>3072</v>
+        <v>2938</v>
       </c>
       <c r="M228" s="0" t="s">
         <v>386</v>
@@ -12521,7 +12524,7 @@
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>3073</v>
+        <v>2939</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>15</v>
@@ -12551,10 +12554,10 @@
         <v>4</v>
       </c>
       <c r="K229" s="0">
-        <v>3073</v>
+        <v>2939</v>
       </c>
       <c r="L229" s="0">
-        <v>3076</v>
+        <v>2942</v>
       </c>
       <c r="M229" s="0" t="s">
         <v>388</v>
@@ -12568,7 +12571,7 @@
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>3077</v>
+        <v>2943</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>15</v>
@@ -12598,10 +12601,10 @@
         <v>7</v>
       </c>
       <c r="K230" s="0">
-        <v>3077</v>
+        <v>2943</v>
       </c>
       <c r="L230" s="0">
-        <v>3083</v>
+        <v>2949</v>
       </c>
       <c r="M230" s="0" t="s">
         <v>390</v>
@@ -12615,7 +12618,7 @@
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>3084</v>
+        <v>2950</v>
       </c>
       <c r="B231" s="0" t="s">
         <v>15</v>
@@ -12645,10 +12648,10 @@
         <v>11</v>
       </c>
       <c r="K231" s="0">
-        <v>3084</v>
+        <v>2950</v>
       </c>
       <c r="L231" s="0">
-        <v>3094</v>
+        <v>2960</v>
       </c>
       <c r="M231" s="0" t="s">
         <v>392</v>
@@ -12662,7 +12665,7 @@
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>3095</v>
+        <v>2961</v>
       </c>
       <c r="B232" s="0" t="s">
         <v>15</v>
@@ -12692,10 +12695,10 @@
         <v>23</v>
       </c>
       <c r="K232" s="0">
-        <v>3095</v>
+        <v>2961</v>
       </c>
       <c r="L232" s="0">
-        <v>3106</v>
+        <v>2972</v>
       </c>
       <c r="M232" s="0" t="s">
         <v>394</v>
@@ -12709,7 +12712,7 @@
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>3095</v>
+        <v>2961</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>15</v>
@@ -12739,10 +12742,10 @@
         <v>23</v>
       </c>
       <c r="K233" s="0">
-        <v>3107</v>
+        <v>2973</v>
       </c>
       <c r="L233" s="0">
-        <v>3117</v>
+        <v>2983</v>
       </c>
       <c r="M233" s="0" t="s">
         <v>395</v>
@@ -12756,7 +12759,7 @@
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>3118</v>
+        <v>2984</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>15</v>
@@ -12786,10 +12789,10 @@
         <v>15</v>
       </c>
       <c r="K234" s="0">
-        <v>3118</v>
+        <v>2984</v>
       </c>
       <c r="L234" s="0">
-        <v>3132</v>
+        <v>2998</v>
       </c>
       <c r="M234" s="0" t="s">
         <v>397</v>
@@ -12803,7 +12806,7 @@
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>3133</v>
+        <v>2999</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>15</v>
@@ -12833,10 +12836,10 @@
         <v>4</v>
       </c>
       <c r="K235" s="0">
-        <v>3133</v>
+        <v>2999</v>
       </c>
       <c r="L235" s="0">
-        <v>3136</v>
+        <v>3002</v>
       </c>
       <c r="M235" s="0" t="s">
         <v>399</v>
@@ -12850,7 +12853,7 @@
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>3137</v>
+        <v>3003</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>15</v>
@@ -12880,10 +12883,10 @@
         <v>2</v>
       </c>
       <c r="K236" s="0">
-        <v>3137</v>
+        <v>3003</v>
       </c>
       <c r="L236" s="0">
-        <v>3138</v>
+        <v>3004</v>
       </c>
       <c r="M236" s="0" t="s">
         <v>401</v>
@@ -12897,7 +12900,7 @@
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>3139</v>
+        <v>3005</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>15</v>
@@ -12927,10 +12930,10 @@
         <v>2</v>
       </c>
       <c r="K237" s="0">
-        <v>3139</v>
+        <v>3005</v>
       </c>
       <c r="L237" s="0">
-        <v>3140</v>
+        <v>3006</v>
       </c>
       <c r="M237" s="0" t="s">
         <v>403</v>
@@ -12944,7 +12947,7 @@
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>3141</v>
+        <v>3007</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>15</v>
@@ -12974,10 +12977,10 @@
         <v>14</v>
       </c>
       <c r="K238" s="0">
-        <v>3141</v>
+        <v>3007</v>
       </c>
       <c r="L238" s="0">
-        <v>3154</v>
+        <v>3020</v>
       </c>
       <c r="M238" s="0" t="s">
         <v>405</v>
@@ -12991,7 +12994,7 @@
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>3155</v>
+        <v>3021</v>
       </c>
       <c r="B239" s="0" t="s">
         <v>15</v>
@@ -13021,10 +13024,10 @@
         <v>12</v>
       </c>
       <c r="K239" s="0">
-        <v>3155</v>
+        <v>3021</v>
       </c>
       <c r="L239" s="0">
-        <v>3166</v>
+        <v>3032</v>
       </c>
       <c r="M239" s="0" t="s">
         <v>407</v>
@@ -13038,7 +13041,7 @@
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>3167</v>
+        <v>3033</v>
       </c>
       <c r="B240" s="0" t="s">
         <v>15</v>
@@ -13068,10 +13071,10 @@
         <v>12</v>
       </c>
       <c r="K240" s="0">
-        <v>3167</v>
+        <v>3033</v>
       </c>
       <c r="L240" s="0">
-        <v>3178</v>
+        <v>3044</v>
       </c>
       <c r="M240" s="0" t="s">
         <v>409</v>
@@ -13085,7 +13088,7 @@
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>3179</v>
+        <v>3045</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>15</v>
@@ -13115,10 +13118,10 @@
         <v>3</v>
       </c>
       <c r="K241" s="0">
-        <v>3179</v>
+        <v>3045</v>
       </c>
       <c r="L241" s="0">
-        <v>3181</v>
+        <v>3047</v>
       </c>
       <c r="M241" s="0" t="s">
         <v>411</v>
@@ -13132,7 +13135,7 @@
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>3182</v>
+        <v>3048</v>
       </c>
       <c r="B242" s="0" t="s">
         <v>15</v>
@@ -13162,10 +13165,10 @@
         <v>11</v>
       </c>
       <c r="K242" s="0">
-        <v>3182</v>
+        <v>3048</v>
       </c>
       <c r="L242" s="0">
-        <v>3192</v>
+        <v>3058</v>
       </c>
       <c r="M242" s="0" t="s">
         <v>413</v>
@@ -13179,7 +13182,7 @@
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>3193</v>
+        <v>3059</v>
       </c>
       <c r="B243" s="0" t="s">
         <v>15</v>
@@ -13209,10 +13212,10 @@
         <v>15</v>
       </c>
       <c r="K243" s="0">
-        <v>3193</v>
+        <v>3059</v>
       </c>
       <c r="L243" s="0">
-        <v>3207</v>
+        <v>3073</v>
       </c>
       <c r="M243" s="0" t="s">
         <v>415</v>
@@ -13226,7 +13229,7 @@
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>3208</v>
+        <v>3074</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>15</v>
@@ -13256,10 +13259,10 @@
         <v>11</v>
       </c>
       <c r="K244" s="0">
-        <v>3208</v>
+        <v>3074</v>
       </c>
       <c r="L244" s="0">
-        <v>3218</v>
+        <v>3084</v>
       </c>
       <c r="M244" s="0" t="s">
         <v>417</v>
@@ -13273,7 +13276,7 @@
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>3219</v>
+        <v>3085</v>
       </c>
       <c r="B245" s="0" t="s">
         <v>15</v>
@@ -13303,10 +13306,10 @@
         <v>8</v>
       </c>
       <c r="K245" s="0">
-        <v>3219</v>
+        <v>3085</v>
       </c>
       <c r="L245" s="0">
-        <v>3226</v>
+        <v>3092</v>
       </c>
       <c r="M245" s="0" t="s">
         <v>419</v>
@@ -13320,7 +13323,7 @@
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>3227</v>
+        <v>3093</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>15</v>
@@ -13350,10 +13353,10 @@
         <v>5</v>
       </c>
       <c r="K246" s="0">
-        <v>3227</v>
+        <v>3093</v>
       </c>
       <c r="L246" s="0">
-        <v>3231</v>
+        <v>3097</v>
       </c>
       <c r="M246" s="0" t="s">
         <v>421</v>
@@ -13367,7 +13370,7 @@
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>3232</v>
+        <v>3098</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>15</v>
@@ -13397,10 +13400,10 @@
         <v>103</v>
       </c>
       <c r="K247" s="0">
-        <v>3232</v>
+        <v>3098</v>
       </c>
       <c r="L247" s="0">
-        <v>3248</v>
+        <v>3114</v>
       </c>
       <c r="M247" s="0" t="s">
         <v>423</v>
@@ -13414,7 +13417,7 @@
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>3232</v>
+        <v>3098</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>15</v>
@@ -13444,10 +13447,10 @@
         <v>103</v>
       </c>
       <c r="K248" s="0">
-        <v>3249</v>
+        <v>3115</v>
       </c>
       <c r="L248" s="0">
-        <v>3265</v>
+        <v>3131</v>
       </c>
       <c r="M248" s="0" t="s">
         <v>424</v>
@@ -13461,7 +13464,7 @@
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>3232</v>
+        <v>3098</v>
       </c>
       <c r="B249" s="0" t="s">
         <v>15</v>
@@ -13491,10 +13494,10 @@
         <v>103</v>
       </c>
       <c r="K249" s="0">
-        <v>3266</v>
+        <v>3132</v>
       </c>
       <c r="L249" s="0">
-        <v>3282</v>
+        <v>3148</v>
       </c>
       <c r="M249" s="0" t="s">
         <v>425</v>
@@ -13508,7 +13511,7 @@
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>3232</v>
+        <v>3098</v>
       </c>
       <c r="B250" s="0" t="s">
         <v>15</v>
@@ -13538,10 +13541,10 @@
         <v>103</v>
       </c>
       <c r="K250" s="0">
-        <v>3283</v>
+        <v>3149</v>
       </c>
       <c r="L250" s="0">
-        <v>3299</v>
+        <v>3165</v>
       </c>
       <c r="M250" s="0" t="s">
         <v>426</v>
@@ -13555,7 +13558,7 @@
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>3232</v>
+        <v>3098</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>15</v>
@@ -13585,10 +13588,10 @@
         <v>103</v>
       </c>
       <c r="K251" s="0">
-        <v>3300</v>
+        <v>3166</v>
       </c>
       <c r="L251" s="0">
-        <v>3316</v>
+        <v>3182</v>
       </c>
       <c r="M251" s="0" t="s">
         <v>427</v>
@@ -13602,7 +13605,7 @@
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>3232</v>
+        <v>3098</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>15</v>
@@ -13632,10 +13635,10 @@
         <v>103</v>
       </c>
       <c r="K252" s="0">
-        <v>3317</v>
+        <v>3183</v>
       </c>
       <c r="L252" s="0">
-        <v>3334</v>
+        <v>3200</v>
       </c>
       <c r="M252" s="0" t="s">
         <v>428</v>
@@ -13649,7 +13652,7 @@
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>3335</v>
+        <v>3201</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>15</v>
@@ -13679,10 +13682,10 @@
         <v>10</v>
       </c>
       <c r="K253" s="0">
-        <v>3335</v>
+        <v>3201</v>
       </c>
       <c r="L253" s="0">
-        <v>3344</v>
+        <v>3210</v>
       </c>
       <c r="M253" s="0" t="s">
         <v>430</v>
@@ -13696,7 +13699,7 @@
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>3345</v>
+        <v>3211</v>
       </c>
       <c r="B254" s="0" t="s">
         <v>15</v>
@@ -13726,10 +13729,10 @@
         <v>29</v>
       </c>
       <c r="K254" s="0">
-        <v>3345</v>
+        <v>3211</v>
       </c>
       <c r="L254" s="0">
-        <v>3358</v>
+        <v>3224</v>
       </c>
       <c r="M254" s="0" t="s">
         <v>432</v>
@@ -13743,7 +13746,7 @@
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>3345</v>
+        <v>3211</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>15</v>
@@ -13773,10 +13776,10 @@
         <v>29</v>
       </c>
       <c r="K255" s="0">
-        <v>3359</v>
+        <v>3225</v>
       </c>
       <c r="L255" s="0">
-        <v>3373</v>
+        <v>3239</v>
       </c>
       <c r="M255" s="0" t="s">
         <v>433</v>
@@ -13790,7 +13793,7 @@
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>3374</v>
+        <v>3240</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>15</v>
@@ -13820,10 +13823,10 @@
         <v>18</v>
       </c>
       <c r="K256" s="0">
-        <v>3374</v>
+        <v>3240</v>
       </c>
       <c r="L256" s="0">
-        <v>3391</v>
+        <v>3257</v>
       </c>
       <c r="M256" s="0" t="s">
         <v>435</v>
@@ -13837,7 +13840,7 @@
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>3392</v>
+        <v>3258</v>
       </c>
       <c r="B257" s="0" t="s">
         <v>15</v>
@@ -13867,10 +13870,10 @@
         <v>6</v>
       </c>
       <c r="K257" s="0">
-        <v>3392</v>
+        <v>3258</v>
       </c>
       <c r="L257" s="0">
-        <v>3397</v>
+        <v>3263</v>
       </c>
       <c r="M257" s="0" t="s">
         <v>437</v>
@@ -13884,7 +13887,7 @@
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>3398</v>
+        <v>3264</v>
       </c>
       <c r="B258" s="0" t="s">
         <v>15</v>
@@ -13914,10 +13917,10 @@
         <v>13</v>
       </c>
       <c r="K258" s="0">
-        <v>3398</v>
+        <v>3264</v>
       </c>
       <c r="L258" s="0">
-        <v>3410</v>
+        <v>3276</v>
       </c>
       <c r="M258" s="0" t="s">
         <v>439</v>
@@ -13931,7 +13934,7 @@
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>3411</v>
+        <v>3277</v>
       </c>
       <c r="B259" s="0" t="s">
         <v>15</v>
@@ -13961,10 +13964,10 @@
         <v>3</v>
       </c>
       <c r="K259" s="0">
-        <v>3411</v>
+        <v>3277</v>
       </c>
       <c r="L259" s="0">
-        <v>3413</v>
+        <v>3279</v>
       </c>
       <c r="M259" s="0" t="s">
         <v>441</v>
@@ -13978,7 +13981,7 @@
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>3414</v>
+        <v>3280</v>
       </c>
       <c r="B260" s="0" t="s">
         <v>15</v>
@@ -14008,10 +14011,10 @@
         <v>6</v>
       </c>
       <c r="K260" s="0">
-        <v>3414</v>
+        <v>3280</v>
       </c>
       <c r="L260" s="0">
-        <v>3419</v>
+        <v>3285</v>
       </c>
       <c r="M260" s="0" t="s">
         <v>443</v>
@@ -14025,7 +14028,7 @@
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>3420</v>
+        <v>3286</v>
       </c>
       <c r="B261" s="0" t="s">
         <v>15</v>
@@ -14055,10 +14058,10 @@
         <v>21</v>
       </c>
       <c r="K261" s="0">
-        <v>3420</v>
+        <v>3286</v>
       </c>
       <c r="L261" s="0">
-        <v>3429</v>
+        <v>3295</v>
       </c>
       <c r="M261" s="0" t="s">
         <v>445</v>
@@ -14072,7 +14075,7 @@
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>3420</v>
+        <v>3286</v>
       </c>
       <c r="B262" s="0" t="s">
         <v>15</v>
@@ -14102,10 +14105,10 @@
         <v>21</v>
       </c>
       <c r="K262" s="0">
-        <v>3430</v>
+        <v>3296</v>
       </c>
       <c r="L262" s="0">
-        <v>3440</v>
+        <v>3306</v>
       </c>
       <c r="M262" s="0" t="s">
         <v>446</v>
@@ -14119,7 +14122,7 @@
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>3441</v>
+        <v>3307</v>
       </c>
       <c r="B263" s="0" t="s">
         <v>15</v>
@@ -14149,10 +14152,10 @@
         <v>13</v>
       </c>
       <c r="K263" s="0">
-        <v>3441</v>
+        <v>3307</v>
       </c>
       <c r="L263" s="0">
-        <v>3453</v>
+        <v>3319</v>
       </c>
       <c r="M263" s="0" t="s">
         <v>448</v>
@@ -14166,7 +14169,7 @@
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>3454</v>
+        <v>3320</v>
       </c>
       <c r="B264" s="0" t="s">
         <v>15</v>
@@ -14196,10 +14199,10 @@
         <v>3</v>
       </c>
       <c r="K264" s="0">
-        <v>3454</v>
+        <v>3320</v>
       </c>
       <c r="L264" s="0">
-        <v>3456</v>
+        <v>3322</v>
       </c>
       <c r="M264" s="0" t="s">
         <v>450</v>
@@ -14213,7 +14216,7 @@
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>3457</v>
+        <v>3323</v>
       </c>
       <c r="B265" s="0" t="s">
         <v>15</v>
@@ -14243,10 +14246,10 @@
         <v>42</v>
       </c>
       <c r="K265" s="0">
-        <v>3457</v>
+        <v>3323</v>
       </c>
       <c r="L265" s="0">
-        <v>3470</v>
+        <v>3336</v>
       </c>
       <c r="M265" s="0" t="s">
         <v>452</v>
@@ -14260,7 +14263,7 @@
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>3457</v>
+        <v>3323</v>
       </c>
       <c r="B266" s="0" t="s">
         <v>15</v>
@@ -14290,10 +14293,10 @@
         <v>42</v>
       </c>
       <c r="K266" s="0">
-        <v>3471</v>
+        <v>3337</v>
       </c>
       <c r="L266" s="0">
-        <v>3484</v>
+        <v>3350</v>
       </c>
       <c r="M266" s="0" t="s">
         <v>453</v>
@@ -14307,7 +14310,7 @@
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>3457</v>
+        <v>3323</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>15</v>
@@ -14337,10 +14340,10 @@
         <v>42</v>
       </c>
       <c r="K267" s="0">
-        <v>3485</v>
+        <v>3351</v>
       </c>
       <c r="L267" s="0">
-        <v>3498</v>
+        <v>3364</v>
       </c>
       <c r="M267" s="0" t="s">
         <v>454</v>
@@ -14354,7 +14357,7 @@
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>3499</v>
+        <v>3365</v>
       </c>
       <c r="B268" s="0" t="s">
         <v>15</v>
@@ -14384,10 +14387,10 @@
         <v>4</v>
       </c>
       <c r="K268" s="0">
-        <v>3499</v>
+        <v>3365</v>
       </c>
       <c r="L268" s="0">
-        <v>3502</v>
+        <v>3368</v>
       </c>
       <c r="M268" s="0" t="s">
         <v>456</v>
@@ -14401,7 +14404,7 @@
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>3503</v>
+        <v>3369</v>
       </c>
       <c r="B269" s="0" t="s">
         <v>15</v>
@@ -14431,10 +14434,10 @@
         <v>4</v>
       </c>
       <c r="K269" s="0">
-        <v>3503</v>
+        <v>3369</v>
       </c>
       <c r="L269" s="0">
-        <v>3506</v>
+        <v>3372</v>
       </c>
       <c r="M269" s="0" t="s">
         <v>458</v>
@@ -14448,7 +14451,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>3507</v>
+        <v>3373</v>
       </c>
       <c r="B270" s="0" t="s">
         <v>15</v>
@@ -14478,10 +14481,10 @@
         <v>3</v>
       </c>
       <c r="K270" s="0">
-        <v>3507</v>
+        <v>3373</v>
       </c>
       <c r="L270" s="0">
-        <v>3509</v>
+        <v>3375</v>
       </c>
       <c r="M270" s="0" t="s">
         <v>460</v>
@@ -14495,7 +14498,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>3510</v>
+        <v>3376</v>
       </c>
       <c r="B271" s="0" t="s">
         <v>15</v>
@@ -14525,10 +14528,10 @@
         <v>12</v>
       </c>
       <c r="K271" s="0">
-        <v>3510</v>
+        <v>3376</v>
       </c>
       <c r="L271" s="0">
-        <v>3521</v>
+        <v>3387</v>
       </c>
       <c r="M271" s="0" t="s">
         <v>462</v>
@@ -14542,7 +14545,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>3522</v>
+        <v>3388</v>
       </c>
       <c r="B272" s="0" t="s">
         <v>15</v>
@@ -14572,10 +14575,10 @@
         <v>7</v>
       </c>
       <c r="K272" s="0">
-        <v>3522</v>
+        <v>3388</v>
       </c>
       <c r="L272" s="0">
-        <v>3528</v>
+        <v>3394</v>
       </c>
       <c r="M272" s="0" t="s">
         <v>464</v>
@@ -14589,7 +14592,7 @@
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>3529</v>
+        <v>3395</v>
       </c>
       <c r="B273" s="0" t="s">
         <v>15</v>
@@ -14619,10 +14622,10 @@
         <v>48</v>
       </c>
       <c r="K273" s="0">
-        <v>3529</v>
+        <v>3395</v>
       </c>
       <c r="L273" s="0">
-        <v>3544</v>
+        <v>3410</v>
       </c>
       <c r="M273" s="0" t="s">
         <v>466</v>
@@ -14636,7 +14639,7 @@
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>3529</v>
+        <v>3395</v>
       </c>
       <c r="B274" s="0" t="s">
         <v>15</v>
@@ -14666,10 +14669,10 @@
         <v>48</v>
       </c>
       <c r="K274" s="0">
-        <v>3545</v>
+        <v>3411</v>
       </c>
       <c r="L274" s="0">
-        <v>3560</v>
+        <v>3426</v>
       </c>
       <c r="M274" s="0" t="s">
         <v>467</v>
@@ -14683,7 +14686,7 @@
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>3529</v>
+        <v>3395</v>
       </c>
       <c r="B275" s="0" t="s">
         <v>15</v>
@@ -14713,10 +14716,10 @@
         <v>48</v>
       </c>
       <c r="K275" s="0">
-        <v>3561</v>
+        <v>3427</v>
       </c>
       <c r="L275" s="0">
-        <v>3576</v>
+        <v>3442</v>
       </c>
       <c r="M275" s="0" t="s">
         <v>468</v>
@@ -14730,7 +14733,7 @@
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>3577</v>
+        <v>3443</v>
       </c>
       <c r="B276" s="0" t="s">
         <v>15</v>
@@ -14760,10 +14763,10 @@
         <v>65</v>
       </c>
       <c r="K276" s="0">
-        <v>3577</v>
+        <v>3443</v>
       </c>
       <c r="L276" s="0">
-        <v>3592</v>
+        <v>3458</v>
       </c>
       <c r="M276" s="0" t="s">
         <v>470</v>
@@ -14777,7 +14780,7 @@
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>3577</v>
+        <v>3443</v>
       </c>
       <c r="B277" s="0" t="s">
         <v>15</v>
@@ -14807,10 +14810,10 @@
         <v>65</v>
       </c>
       <c r="K277" s="0">
-        <v>3593</v>
+        <v>3459</v>
       </c>
       <c r="L277" s="0">
-        <v>3608</v>
+        <v>3474</v>
       </c>
       <c r="M277" s="0" t="s">
         <v>471</v>
@@ -14824,7 +14827,7 @@
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>3577</v>
+        <v>3443</v>
       </c>
       <c r="B278" s="0" t="s">
         <v>15</v>
@@ -14854,10 +14857,10 @@
         <v>65</v>
       </c>
       <c r="K278" s="0">
-        <v>3609</v>
+        <v>3475</v>
       </c>
       <c r="L278" s="0">
-        <v>3624</v>
+        <v>3490</v>
       </c>
       <c r="M278" s="0" t="s">
         <v>472</v>
@@ -14871,7 +14874,7 @@
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>3577</v>
+        <v>3443</v>
       </c>
       <c r="B279" s="0" t="s">
         <v>15</v>
@@ -14901,10 +14904,10 @@
         <v>65</v>
       </c>
       <c r="K279" s="0">
-        <v>3625</v>
+        <v>3491</v>
       </c>
       <c r="L279" s="0">
-        <v>3641</v>
+        <v>3507</v>
       </c>
       <c r="M279" s="0" t="s">
         <v>473</v>
@@ -14918,7 +14921,7 @@
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>3642</v>
+        <v>3508</v>
       </c>
       <c r="B280" s="0" t="s">
         <v>15</v>
@@ -14948,10 +14951,10 @@
         <v>12</v>
       </c>
       <c r="K280" s="0">
-        <v>3642</v>
+        <v>3508</v>
       </c>
       <c r="L280" s="0">
-        <v>3653</v>
+        <v>3519</v>
       </c>
       <c r="M280" s="0" t="s">
         <v>475</v>
@@ -14965,7 +14968,7 @@
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>3654</v>
+        <v>3520</v>
       </c>
       <c r="B281" s="0" t="s">
         <v>15</v>
@@ -14995,10 +14998,10 @@
         <v>19</v>
       </c>
       <c r="K281" s="0">
-        <v>3654</v>
+        <v>3520</v>
       </c>
       <c r="L281" s="0">
-        <v>3672</v>
+        <v>3538</v>
       </c>
       <c r="M281" s="0" t="s">
         <v>477</v>
@@ -15012,7 +15015,7 @@
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>3673</v>
+        <v>3539</v>
       </c>
       <c r="B282" s="0" t="s">
         <v>15</v>
@@ -15042,10 +15045,10 @@
         <v>12</v>
       </c>
       <c r="K282" s="0">
-        <v>3673</v>
+        <v>3539</v>
       </c>
       <c r="L282" s="0">
-        <v>3684</v>
+        <v>3550</v>
       </c>
       <c r="M282" s="0" t="s">
         <v>479</v>
@@ -15059,7 +15062,7 @@
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>3685</v>
+        <v>3551</v>
       </c>
       <c r="B283" s="0" t="s">
         <v>15</v>
@@ -15089,10 +15092,10 @@
         <v>22</v>
       </c>
       <c r="K283" s="0">
-        <v>3685</v>
+        <v>3551</v>
       </c>
       <c r="L283" s="0">
-        <v>3695</v>
+        <v>3561</v>
       </c>
       <c r="M283" s="0" t="s">
         <v>481</v>
@@ -15106,7 +15109,7 @@
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>3685</v>
+        <v>3551</v>
       </c>
       <c r="B284" s="0" t="s">
         <v>15</v>
@@ -15136,10 +15139,10 @@
         <v>22</v>
       </c>
       <c r="K284" s="0">
-        <v>3696</v>
+        <v>3562</v>
       </c>
       <c r="L284" s="0">
-        <v>3706</v>
+        <v>3572</v>
       </c>
       <c r="M284" s="0" t="s">
         <v>482</v>
@@ -15153,7 +15156,7 @@
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>3707</v>
+        <v>3573</v>
       </c>
       <c r="B285" s="0" t="s">
         <v>15</v>
@@ -15183,10 +15186,10 @@
         <v>7</v>
       </c>
       <c r="K285" s="0">
-        <v>3707</v>
+        <v>3573</v>
       </c>
       <c r="L285" s="0">
-        <v>3713</v>
+        <v>3579</v>
       </c>
       <c r="M285" s="0" t="s">
         <v>484</v>
@@ -15200,7 +15203,7 @@
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>3714</v>
+        <v>3580</v>
       </c>
       <c r="B286" s="0" t="s">
         <v>15</v>
@@ -15230,10 +15233,10 @@
         <v>3</v>
       </c>
       <c r="K286" s="0">
-        <v>3714</v>
+        <v>3580</v>
       </c>
       <c r="L286" s="0">
-        <v>3716</v>
+        <v>3582</v>
       </c>
       <c r="M286" s="0" t="s">
         <v>486</v>
@@ -15247,7 +15250,7 @@
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>3717</v>
+        <v>3583</v>
       </c>
       <c r="B287" s="0" t="s">
         <v>15</v>
@@ -15277,10 +15280,10 @@
         <v>24</v>
       </c>
       <c r="K287" s="0">
-        <v>3717</v>
+        <v>3583</v>
       </c>
       <c r="L287" s="0">
-        <v>3728</v>
+        <v>3594</v>
       </c>
       <c r="M287" s="0" t="s">
         <v>488</v>
@@ -15294,7 +15297,7 @@
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>3717</v>
+        <v>3583</v>
       </c>
       <c r="B288" s="0" t="s">
         <v>15</v>
@@ -15324,10 +15327,10 @@
         <v>24</v>
       </c>
       <c r="K288" s="0">
-        <v>3729</v>
+        <v>3595</v>
       </c>
       <c r="L288" s="0">
-        <v>3740</v>
+        <v>3606</v>
       </c>
       <c r="M288" s="0" t="s">
         <v>489</v>
@@ -15341,7 +15344,7 @@
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>3741</v>
+        <v>3607</v>
       </c>
       <c r="B289" s="0" t="s">
         <v>15</v>
@@ -15371,10 +15374,10 @@
         <v>11</v>
       </c>
       <c r="K289" s="0">
-        <v>3741</v>
+        <v>3607</v>
       </c>
       <c r="L289" s="0">
-        <v>3751</v>
+        <v>3617</v>
       </c>
       <c r="M289" s="0" t="s">
         <v>491</v>
@@ -15388,7 +15391,7 @@
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>3752</v>
+        <v>3618</v>
       </c>
       <c r="B290" s="0" t="s">
         <v>15</v>
@@ -15418,10 +15421,10 @@
         <v>30</v>
       </c>
       <c r="K290" s="0">
-        <v>3752</v>
+        <v>3618</v>
       </c>
       <c r="L290" s="0">
-        <v>3766</v>
+        <v>3632</v>
       </c>
       <c r="M290" s="0" t="s">
         <v>493</v>
@@ -15435,7 +15438,7 @@
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>3752</v>
+        <v>3618</v>
       </c>
       <c r="B291" s="0" t="s">
         <v>15</v>
@@ -15465,10 +15468,10 @@
         <v>30</v>
       </c>
       <c r="K291" s="0">
-        <v>3767</v>
+        <v>3633</v>
       </c>
       <c r="L291" s="0">
-        <v>3781</v>
+        <v>3647</v>
       </c>
       <c r="M291" s="0" t="s">
         <v>494</v>
@@ -15482,7 +15485,7 @@
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>3782</v>
+        <v>3648</v>
       </c>
       <c r="B292" s="0" t="s">
         <v>15</v>
@@ -15512,10 +15515,10 @@
         <v>4</v>
       </c>
       <c r="K292" s="0">
-        <v>3782</v>
+        <v>3648</v>
       </c>
       <c r="L292" s="0">
-        <v>3785</v>
+        <v>3651</v>
       </c>
       <c r="M292" s="0" t="s">
         <v>496</v>
@@ -15529,7 +15532,7 @@
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>3786</v>
+        <v>3652</v>
       </c>
       <c r="B293" s="0" t="s">
         <v>15</v>
@@ -15559,10 +15562,10 @@
         <v>13</v>
       </c>
       <c r="K293" s="0">
-        <v>3786</v>
+        <v>3652</v>
       </c>
       <c r="L293" s="0">
-        <v>3798</v>
+        <v>3664</v>
       </c>
       <c r="M293" s="0" t="s">
         <v>498</v>
@@ -15576,7 +15579,7 @@
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>3799</v>
+        <v>3665</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>15</v>
@@ -15606,10 +15609,10 @@
         <v>12</v>
       </c>
       <c r="K294" s="0">
-        <v>3799</v>
+        <v>3665</v>
       </c>
       <c r="L294" s="0">
-        <v>3810</v>
+        <v>3676</v>
       </c>
       <c r="M294" s="0" t="s">
         <v>500</v>
@@ -15623,7 +15626,7 @@
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>3811</v>
+        <v>3677</v>
       </c>
       <c r="B295" s="0" t="s">
         <v>15</v>
@@ -15653,10 +15656,10 @@
         <v>22</v>
       </c>
       <c r="K295" s="0">
-        <v>3811</v>
+        <v>3677</v>
       </c>
       <c r="L295" s="0">
-        <v>3821</v>
+        <v>3687</v>
       </c>
       <c r="M295" s="0" t="s">
         <v>502</v>
@@ -15670,7 +15673,7 @@
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>3811</v>
+        <v>3677</v>
       </c>
       <c r="B296" s="0" t="s">
         <v>15</v>
@@ -15700,10 +15703,10 @@
         <v>22</v>
       </c>
       <c r="K296" s="0">
-        <v>3822</v>
+        <v>3688</v>
       </c>
       <c r="L296" s="0">
-        <v>3832</v>
+        <v>3698</v>
       </c>
       <c r="M296" s="0" t="s">
         <v>503</v>
@@ -15717,7 +15720,7 @@
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>3833</v>
+        <v>3699</v>
       </c>
       <c r="B297" s="0" t="s">
         <v>15</v>
@@ -15747,10 +15750,10 @@
         <v>21</v>
       </c>
       <c r="K297" s="0">
-        <v>3833</v>
+        <v>3699</v>
       </c>
       <c r="L297" s="0">
-        <v>3842</v>
+        <v>3708</v>
       </c>
       <c r="M297" s="0" t="s">
         <v>505</v>
@@ -15764,7 +15767,7 @@
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>3833</v>
+        <v>3699</v>
       </c>
       <c r="B298" s="0" t="s">
         <v>15</v>
@@ -15794,10 +15797,10 @@
         <v>21</v>
       </c>
       <c r="K298" s="0">
-        <v>3843</v>
+        <v>3709</v>
       </c>
       <c r="L298" s="0">
-        <v>3853</v>
+        <v>3719</v>
       </c>
       <c r="M298" s="0" t="s">
         <v>506</v>
@@ -15811,7 +15814,7 @@
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>3854</v>
+        <v>3720</v>
       </c>
       <c r="B299" s="0" t="s">
         <v>15</v>
@@ -15841,10 +15844,10 @@
         <v>5</v>
       </c>
       <c r="K299" s="0">
-        <v>3854</v>
+        <v>3720</v>
       </c>
       <c r="L299" s="0">
-        <v>3858</v>
+        <v>3724</v>
       </c>
       <c r="M299" s="0" t="s">
         <v>508</v>
@@ -15858,7 +15861,7 @@
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>3859</v>
+        <v>3725</v>
       </c>
       <c r="B300" s="0" t="s">
         <v>15</v>
@@ -15888,10 +15891,10 @@
         <v>11</v>
       </c>
       <c r="K300" s="0">
-        <v>3859</v>
+        <v>3725</v>
       </c>
       <c r="L300" s="0">
-        <v>3869</v>
+        <v>3735</v>
       </c>
       <c r="M300" s="0" t="s">
         <v>510</v>
@@ -15905,7 +15908,7 @@
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>3870</v>
+        <v>3736</v>
       </c>
       <c r="B301" s="0" t="s">
         <v>15</v>
@@ -15935,10 +15938,10 @@
         <v>4</v>
       </c>
       <c r="K301" s="0">
-        <v>3870</v>
+        <v>3736</v>
       </c>
       <c r="L301" s="0">
-        <v>3873</v>
+        <v>3739</v>
       </c>
       <c r="M301" s="0" t="s">
         <v>512</v>
@@ -15952,7 +15955,7 @@
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>3874</v>
+        <v>3740</v>
       </c>
       <c r="B302" s="0" t="s">
         <v>15</v>
@@ -15982,10 +15985,10 @@
         <v>10</v>
       </c>
       <c r="K302" s="0">
-        <v>3874</v>
+        <v>3740</v>
       </c>
       <c r="L302" s="0">
-        <v>3883</v>
+        <v>3749</v>
       </c>
       <c r="M302" s="0" t="s">
         <v>514</v>
@@ -15999,7 +16002,7 @@
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>3884</v>
+        <v>3750</v>
       </c>
       <c r="B303" s="0" t="s">
         <v>15</v>
@@ -16029,10 +16032,10 @@
         <v>9</v>
       </c>
       <c r="K303" s="0">
-        <v>3884</v>
+        <v>3750</v>
       </c>
       <c r="L303" s="0">
-        <v>3892</v>
+        <v>3758</v>
       </c>
       <c r="M303" s="0" t="s">
         <v>516</v>
@@ -16046,7 +16049,7 @@
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>3893</v>
+        <v>3759</v>
       </c>
       <c r="B304" s="0" t="s">
         <v>15</v>
@@ -16076,10 +16079,10 @@
         <v>7</v>
       </c>
       <c r="K304" s="0">
-        <v>3893</v>
+        <v>3759</v>
       </c>
       <c r="L304" s="0">
-        <v>3899</v>
+        <v>3765</v>
       </c>
       <c r="M304" s="0" t="s">
         <v>518</v>
@@ -16093,7 +16096,7 @@
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>3900</v>
+        <v>3766</v>
       </c>
       <c r="B305" s="0" t="s">
         <v>15</v>
@@ -16123,10 +16126,10 @@
         <v>7</v>
       </c>
       <c r="K305" s="0">
-        <v>3900</v>
+        <v>3766</v>
       </c>
       <c r="L305" s="0">
-        <v>3906</v>
+        <v>3772</v>
       </c>
       <c r="M305" s="0" t="s">
         <v>520</v>
@@ -16140,7 +16143,7 @@
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>3907</v>
+        <v>3773</v>
       </c>
       <c r="B306" s="0" t="s">
         <v>15</v>
@@ -16170,10 +16173,10 @@
         <v>3</v>
       </c>
       <c r="K306" s="0">
-        <v>3907</v>
+        <v>3773</v>
       </c>
       <c r="L306" s="0">
-        <v>3909</v>
+        <v>3775</v>
       </c>
       <c r="M306" s="0" t="s">
         <v>522</v>
@@ -16187,7 +16190,7 @@
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>3910</v>
+        <v>3776</v>
       </c>
       <c r="B307" s="0" t="s">
         <v>15</v>
@@ -16217,10 +16220,10 @@
         <v>22</v>
       </c>
       <c r="K307" s="0">
-        <v>3910</v>
+        <v>3776</v>
       </c>
       <c r="L307" s="0">
-        <v>3920</v>
+        <v>3786</v>
       </c>
       <c r="M307" s="0" t="s">
         <v>524</v>
@@ -16234,7 +16237,7 @@
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>3910</v>
+        <v>3776</v>
       </c>
       <c r="B308" s="0" t="s">
         <v>15</v>
@@ -16264,10 +16267,10 @@
         <v>22</v>
       </c>
       <c r="K308" s="0">
-        <v>3921</v>
+        <v>3787</v>
       </c>
       <c r="L308" s="0">
-        <v>3931</v>
+        <v>3797</v>
       </c>
       <c r="M308" s="0" t="s">
         <v>525</v>
@@ -16281,7 +16284,7 @@
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>3932</v>
+        <v>3798</v>
       </c>
       <c r="B309" s="0" t="s">
         <v>15</v>
@@ -16311,10 +16314,10 @@
         <v>10</v>
       </c>
       <c r="K309" s="0">
-        <v>3932</v>
+        <v>3798</v>
       </c>
       <c r="L309" s="0">
-        <v>3941</v>
+        <v>3807</v>
       </c>
       <c r="M309" s="0" t="s">
         <v>527</v>
@@ -16328,7 +16331,7 @@
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>3942</v>
+        <v>3808</v>
       </c>
       <c r="B310" s="0" t="s">
         <v>15</v>
@@ -16358,10 +16361,10 @@
         <v>12</v>
       </c>
       <c r="K310" s="0">
-        <v>3942</v>
+        <v>3808</v>
       </c>
       <c r="L310" s="0">
-        <v>3953</v>
+        <v>3819</v>
       </c>
       <c r="M310" s="0" t="s">
         <v>529</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>3954</v>
+        <v>3820</v>
       </c>
       <c r="B311" s="0" t="s">
         <v>15</v>
@@ -16405,10 +16408,10 @@
         <v>1</v>
       </c>
       <c r="K311" s="0">
-        <v>3954</v>
+        <v>3820</v>
       </c>
       <c r="L311" s="0">
-        <v>3954</v>
+        <v>3820</v>
       </c>
       <c r="M311" s="0" t="s">
         <v>531</v>
@@ -16422,7 +16425,7 @@
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>3955</v>
+        <v>3821</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>15</v>
@@ -16452,10 +16455,10 @@
         <v>14</v>
       </c>
       <c r="K312" s="0">
-        <v>3955</v>
+        <v>3821</v>
       </c>
       <c r="L312" s="0">
-        <v>3968</v>
+        <v>3834</v>
       </c>
       <c r="M312" s="0" t="s">
         <v>533</v>
@@ -16469,7 +16472,7 @@
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>3969</v>
+        <v>3835</v>
       </c>
       <c r="B313" s="0" t="s">
         <v>15</v>
@@ -16499,10 +16502,10 @@
         <v>21</v>
       </c>
       <c r="K313" s="0">
-        <v>3969</v>
+        <v>3835</v>
       </c>
       <c r="L313" s="0">
-        <v>3978</v>
+        <v>3844</v>
       </c>
       <c r="M313" s="0" t="s">
         <v>535</v>
@@ -16516,7 +16519,7 @@
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>3969</v>
+        <v>3835</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>15</v>
@@ -16546,10 +16549,10 @@
         <v>21</v>
       </c>
       <c r="K314" s="0">
-        <v>3979</v>
+        <v>3845</v>
       </c>
       <c r="L314" s="0">
-        <v>3989</v>
+        <v>3855</v>
       </c>
       <c r="M314" s="0" t="s">
         <v>536</v>
@@ -16563,7 +16566,7 @@
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>3990</v>
+        <v>3856</v>
       </c>
       <c r="B315" s="0" t="s">
         <v>15</v>
@@ -16593,10 +16596,10 @@
         <v>9</v>
       </c>
       <c r="K315" s="0">
-        <v>3990</v>
+        <v>3856</v>
       </c>
       <c r="L315" s="0">
-        <v>3998</v>
+        <v>3864</v>
       </c>
       <c r="M315" s="0" t="s">
         <v>538</v>
@@ -16610,7 +16613,7 @@
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>3999</v>
+        <v>3865</v>
       </c>
       <c r="B316" s="0" t="s">
         <v>15</v>
@@ -16640,10 +16643,10 @@
         <v>2</v>
       </c>
       <c r="K316" s="0">
-        <v>3999</v>
+        <v>3865</v>
       </c>
       <c r="L316" s="0">
-        <v>4000</v>
+        <v>3866</v>
       </c>
       <c r="M316" s="0" t="s">
         <v>540</v>
@@ -16657,7 +16660,7 @@
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>4001</v>
+        <v>3867</v>
       </c>
       <c r="B317" s="0" t="s">
         <v>15</v>
@@ -16687,10 +16690,10 @@
         <v>4</v>
       </c>
       <c r="K317" s="0">
-        <v>4001</v>
+        <v>3867</v>
       </c>
       <c r="L317" s="0">
-        <v>4004</v>
+        <v>3870</v>
       </c>
       <c r="M317" s="0" t="s">
         <v>542</v>
@@ -16704,7 +16707,7 @@
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>4005</v>
+        <v>3871</v>
       </c>
       <c r="B318" s="0" t="s">
         <v>15</v>
@@ -16734,10 +16737,10 @@
         <v>4</v>
       </c>
       <c r="K318" s="0">
-        <v>4005</v>
+        <v>3871</v>
       </c>
       <c r="L318" s="0">
-        <v>4008</v>
+        <v>3874</v>
       </c>
       <c r="M318" s="0" t="s">
         <v>544</v>
@@ -16751,7 +16754,7 @@
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>4009</v>
+        <v>3875</v>
       </c>
       <c r="B319" s="0" t="s">
         <v>15</v>
@@ -16781,10 +16784,10 @@
         <v>7</v>
       </c>
       <c r="K319" s="0">
-        <v>4009</v>
+        <v>3875</v>
       </c>
       <c r="L319" s="0">
-        <v>4015</v>
+        <v>3881</v>
       </c>
       <c r="M319" s="0" t="s">
         <v>546</v>
@@ -16798,7 +16801,7 @@
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>491</v>
+        <v>3882</v>
       </c>
       <c r="B320" s="0" t="s">
         <v>15</v>
@@ -16828,10 +16831,10 @@
         <v>2</v>
       </c>
       <c r="K320" s="0">
-        <v>491</v>
+        <v>3882</v>
       </c>
       <c r="L320" s="0">
-        <v>492</v>
+        <v>3883</v>
       </c>
       <c r="M320" s="0" t="s">
         <v>548</v>
@@ -16845,7 +16848,7 @@
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>493</v>
+        <v>3884</v>
       </c>
       <c r="B321" s="0" t="s">
         <v>15</v>
@@ -16875,10 +16878,10 @@
         <v>9</v>
       </c>
       <c r="K321" s="0">
-        <v>493</v>
+        <v>3884</v>
       </c>
       <c r="L321" s="0">
-        <v>501</v>
+        <v>3892</v>
       </c>
       <c r="M321" s="0" t="s">
         <v>550</v>
@@ -16892,7 +16895,7 @@
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>502</v>
+        <v>3893</v>
       </c>
       <c r="B322" s="0" t="s">
         <v>15</v>
@@ -16922,10 +16925,10 @@
         <v>17</v>
       </c>
       <c r="K322" s="0">
-        <v>4016</v>
+        <v>3893</v>
       </c>
       <c r="L322" s="0">
-        <v>4032</v>
+        <v>3909</v>
       </c>
       <c r="M322" s="0" t="s">
         <v>552</v>
@@ -16939,7 +16942,7 @@
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>537</v>
+        <v>3910</v>
       </c>
       <c r="B323" s="0" t="s">
         <v>15</v>
@@ -16969,13 +16972,13 @@
         <v>10</v>
       </c>
       <c r="K323" s="0">
-        <v>537</v>
+        <v>3910</v>
       </c>
       <c r="L323" s="0">
-        <v>546</v>
+        <v>3919</v>
       </c>
       <c r="M323" s="0" t="s">
-        <v>59</v>
+        <v>554</v>
       </c>
       <c r="N323" s="0">
         <v>6400</v>
@@ -16986,13 +16989,13 @@
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>547</v>
+        <v>3920</v>
       </c>
       <c r="B324" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D324" s="0">
         <v>1116</v>
@@ -17016,13 +17019,13 @@
         <v>6</v>
       </c>
       <c r="K324" s="0">
-        <v>547</v>
+        <v>3920</v>
       </c>
       <c r="L324" s="0">
-        <v>552</v>
+        <v>3925</v>
       </c>
       <c r="M324" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N324" s="0">
         <v>3840</v>
@@ -17033,13 +17036,13 @@
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>553</v>
+        <v>3926</v>
       </c>
       <c r="B325" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D325" s="0">
         <v>1117</v>
@@ -17063,13 +17066,13 @@
         <v>5</v>
       </c>
       <c r="K325" s="0">
-        <v>553</v>
+        <v>3926</v>
       </c>
       <c r="L325" s="0">
-        <v>557</v>
+        <v>3930</v>
       </c>
       <c r="M325" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N325" s="0">
         <v>3200</v>
@@ -17080,13 +17083,13 @@
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>558</v>
+        <v>3931</v>
       </c>
       <c r="B326" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D326" s="0">
         <v>1119</v>
@@ -17110,13 +17113,13 @@
         <v>3</v>
       </c>
       <c r="K326" s="0">
-        <v>558</v>
+        <v>3931</v>
       </c>
       <c r="L326" s="0">
+        <v>3933</v>
+      </c>
+      <c r="M326" s="0" t="s">
         <v>560</v>
-      </c>
-      <c r="M326" s="0" t="s">
-        <v>559</v>
       </c>
       <c r="N326" s="0">
         <v>1920</v>
@@ -17127,13 +17130,13 @@
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>581</v>
+        <v>3934</v>
       </c>
       <c r="B327" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D327" s="0">
         <v>1120</v>
@@ -17157,13 +17160,13 @@
         <v>9</v>
       </c>
       <c r="K327" s="0">
-        <v>581</v>
+        <v>3934</v>
       </c>
       <c r="L327" s="0">
-        <v>589</v>
+        <v>3942</v>
       </c>
       <c r="M327" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N327" s="0">
         <v>5760</v>
@@ -17174,13 +17177,13 @@
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>590</v>
+        <v>3943</v>
       </c>
       <c r="B328" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D328" s="0">
         <v>1121</v>
@@ -17204,13 +17207,13 @@
         <v>9</v>
       </c>
       <c r="K328" s="0">
-        <v>590</v>
+        <v>3943</v>
       </c>
       <c r="L328" s="0">
-        <v>598</v>
+        <v>3951</v>
       </c>
       <c r="M328" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N328" s="0">
         <v>5760</v>
@@ -17221,13 +17224,13 @@
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>599</v>
+        <v>3952</v>
       </c>
       <c r="B329" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D329" s="0">
         <v>1125</v>
@@ -17251,13 +17254,13 @@
         <v>3</v>
       </c>
       <c r="K329" s="0">
-        <v>599</v>
+        <v>3952</v>
       </c>
       <c r="L329" s="0">
-        <v>601</v>
+        <v>3954</v>
       </c>
       <c r="M329" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N329" s="0">
         <v>1920</v>
@@ -17268,13 +17271,13 @@
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>602</v>
+        <v>3955</v>
       </c>
       <c r="B330" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D330" s="0">
         <v>1127</v>
@@ -17298,13 +17301,13 @@
         <v>7</v>
       </c>
       <c r="K330" s="0">
-        <v>602</v>
+        <v>3955</v>
       </c>
       <c r="L330" s="0">
-        <v>608</v>
+        <v>3961</v>
       </c>
       <c r="M330" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N330" s="0">
         <v>4480</v>
@@ -17315,13 +17318,13 @@
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>609</v>
+        <v>3962</v>
       </c>
       <c r="B331" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D331" s="0">
         <v>1128</v>
@@ -17345,13 +17348,13 @@
         <v>9</v>
       </c>
       <c r="K331" s="0">
-        <v>609</v>
+        <v>3962</v>
       </c>
       <c r="L331" s="0">
-        <v>617</v>
+        <v>3970</v>
       </c>
       <c r="M331" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N331" s="0">
         <v>5760</v>
@@ -17362,13 +17365,13 @@
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>618</v>
+        <v>3971</v>
       </c>
       <c r="B332" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D332" s="0">
         <v>1129</v>
@@ -17392,13 +17395,13 @@
         <v>16</v>
       </c>
       <c r="K332" s="0">
-        <v>4033</v>
+        <v>3971</v>
       </c>
       <c r="L332" s="0">
-        <v>4048</v>
+        <v>3986</v>
       </c>
       <c r="M332" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N332" s="0">
         <v>10240</v>
@@ -17409,13 +17412,13 @@
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>740</v>
+        <v>3987</v>
       </c>
       <c r="B333" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D333" s="0">
         <v>1130</v>
@@ -17439,13 +17442,13 @@
         <v>3</v>
       </c>
       <c r="K333" s="0">
-        <v>740</v>
+        <v>3987</v>
       </c>
       <c r="L333" s="0">
-        <v>742</v>
+        <v>3989</v>
       </c>
       <c r="M333" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N333" s="0">
         <v>1920</v>
@@ -17456,13 +17459,13 @@
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>743</v>
+        <v>3990</v>
       </c>
       <c r="B334" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D334" s="0">
         <v>1132</v>
@@ -17486,13 +17489,13 @@
         <v>16</v>
       </c>
       <c r="K334" s="0">
-        <v>743</v>
+        <v>3990</v>
       </c>
       <c r="L334" s="0">
-        <v>758</v>
+        <v>4005</v>
       </c>
       <c r="M334" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N334" s="0">
         <v>10240</v>
@@ -17503,13 +17506,13 @@
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>759</v>
+        <v>4006</v>
       </c>
       <c r="B335" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D335" s="0">
         <v>1136</v>
@@ -17533,13 +17536,13 @@
         <v>10</v>
       </c>
       <c r="K335" s="0">
-        <v>4049</v>
+        <v>4006</v>
       </c>
       <c r="L335" s="0">
-        <v>4058</v>
+        <v>4015</v>
       </c>
       <c r="M335" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N335" s="0">
         <v>6400</v>
@@ -17556,7 +17559,7 @@
         <v>15</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D336" s="0">
         <v>100000</v>
@@ -17586,7 +17589,7 @@
         <v>4017</v>
       </c>
       <c r="M336" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N336" s="0">
         <v>1280</v>
